--- a/4_Data_Extraction/Open_Data.xlsx
+++ b/4_Data_Extraction/Open_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmz19\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\Self\yuki_Test_retest_SALT\4_Data_Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="571">
   <si>
     <t>fail to open supplementary material url, 2 participant were excluded for high scores in SAS and SDS(don't have mean &amp; SD age)</t>
   </si>
@@ -1803,6 +1803,88 @@
   <si>
     <t>AMIGO(friend)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no descriptive stat.(have plots), have original data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constable; Knoblich</t>
+  </si>
+  <si>
+    <t>merryn.constable@northumbria.ac.uk (M.D. Constable).</t>
+  </si>
+  <si>
+    <t>Acta Psychologica</t>
+  </si>
+  <si>
+    <t>Study 1_Phase 1</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>memory-based processes, identity-prioritisation
+effects,  self-verification</t>
+  </si>
+  <si>
+    <t>an enhanced representation for task partner-associated identities</t>
+  </si>
+  <si>
+    <t>Self, Partner, Stranger</t>
+  </si>
+  <si>
+    <t>Phase:1, 2</t>
+  </si>
+  <si>
+    <t>pair (One participant was assigned to respond when the labels matched and the other was assigned to respond when they did not match), identity switch</t>
+  </si>
+  <si>
+    <t>in exchange for supermarket vouchers</t>
+  </si>
+  <si>
+    <t>self(participants' name)</t>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner(participants' name)</t>
+  </si>
+  <si>
+    <t>strangert(a name from a list of 20
+names (10 male, and 10 female))</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Pentagon</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>doi:10.17605/OSF.IO/5ZAEJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff(RT_self - RT_partner - RT_stranger) 	</t>
+  </si>
+  <si>
+    <t>Main effects of Identity (F(2,88) = 121.71, p &lt; .001, ηp 2 = 0.73),             Switch (F(1,44) = 6.48, p = .01, ηp
+2 = 0.13),                      No effect of Phase was observed, F(1,44) = 2.03, p = .16, ηp2 = 0.04,            an Identity × Switch and an
+Identity × Phase interaction, F(2,88) = 4.17, p = .02, ηp
+2 = 0.87 and F(2,88) =14.675, p &lt;= .001, ηp2 =0.25, respectively.</t>
+  </si>
+  <si>
+    <t>Study 1_Phase 2</t>
   </si>
 </sst>
 </file>
@@ -2150,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HW47"/>
+  <dimension ref="A1:HW49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:HV1048576"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3884,79 +3966,79 @@
     </row>
     <row r="7" spans="1:231" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>453</v>
+        <v>546</v>
       </c>
       <c r="B7" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>454</v>
+        <v>547</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>455</v>
+        <v>548</v>
       </c>
       <c r="F7" s="1">
         <v>2020</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>456</v>
+        <v>549</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>457</v>
+        <v>550</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>6</v>
+        <v>551</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>458</v>
+        <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>459</v>
+        <v>552</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>305</v>
+        <v>553</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>460</v>
+        <v>45</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>461</v>
+        <v>554</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>462</v>
+        <v>555</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>15</v>
+        <v>556</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>276</v>
+        <v>557</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U7" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V7" s="1">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="W7" s="1">
-        <v>21.58</v>
+        <v>21.93</v>
       </c>
       <c r="X7" s="1">
-        <v>3.71</v>
+        <v>2.78</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>463</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>16</v>
@@ -3968,177 +4050,192 @@
         <v>12</v>
       </c>
       <c r="AC7" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AD7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>20</v>
+        <v>558</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>312</v>
+        <v>559</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>22</v>
+        <v>561</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>315</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>40</v>
+        <v>562</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>287</v>
+        <v>563</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>288</v>
+        <v>564</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="CG7" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="CW7" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="CX7" s="1" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="DN7" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="ED7" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="EE7" s="1" t="s">
         <v>433</v>
       </c>
       <c r="EU7" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="FK7" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="FL7" s="1" t="s">
         <v>433</v>
       </c>
       <c r="GB7" s="1" t="s">
-        <v>464</v>
+        <v>280</v>
       </c>
       <c r="GR7" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="GS7" s="1" t="s">
         <v>433</v>
       </c>
       <c r="HD7" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="HE7" s="1" t="s">
         <v>433</v>
       </c>
       <c r="HP7" s="1" t="s">
-        <v>464</v>
+        <v>280</v>
+      </c>
+      <c r="HQ7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="HR7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="HS7" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="HT7" s="1" t="s">
-        <v>465</v>
+        <v>527</v>
+      </c>
+      <c r="HU7" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="HW7" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:231" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="B8" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>454</v>
+        <v>547</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>455</v>
+        <v>548</v>
       </c>
       <c r="F8" s="1">
         <v>2020</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>467</v>
+        <v>549</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>468</v>
+        <v>570</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>6</v>
+        <v>551</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>458</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>459</v>
+        <v>552</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>305</v>
+        <v>553</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>469</v>
+        <v>45</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>461</v>
+        <v>554</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>462</v>
+        <v>555</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>15</v>
+        <v>556</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>276</v>
+        <v>557</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U8" s="1">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="V8" s="1">
-        <v>24</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>325</v>
+        <v>73</v>
+      </c>
+      <c r="W8" s="1">
+        <v>21.93</v>
+      </c>
+      <c r="X8" s="1">
+        <v>2.78</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>463</v>
+        <v>15</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>16</v>
@@ -4150,105 +4247,120 @@
         <v>12</v>
       </c>
       <c r="AC8" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AD8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>20</v>
+        <v>558</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>22</v>
+        <v>561</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>315</v>
       </c>
       <c r="BE8" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>40</v>
+        <v>562</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>287</v>
+        <v>563</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>288</v>
+        <v>564</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="CG8" s="1" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="CW8" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="CX8" s="1" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="DN8" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="ED8" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="EE8" s="1" t="s">
         <v>433</v>
       </c>
       <c r="EU8" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="FK8" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="FL8" s="1" t="s">
         <v>433</v>
       </c>
       <c r="GB8" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="GR8" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="GS8" s="1" t="s">
         <v>433</v>
       </c>
       <c r="HD8" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="HE8" s="1" t="s">
         <v>433</v>
       </c>
       <c r="HP8" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
+      </c>
+      <c r="HQ8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="HR8" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="HS8" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="HT8" s="1" t="s">
-        <v>465</v>
+        <v>527</v>
+      </c>
+      <c r="HU8" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="HW8" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:231" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="B9" s="1">
         <v>19</v>
@@ -4266,10 +4378,10 @@
         <v>2020</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>6</v>
@@ -4287,7 +4399,7 @@
         <v>305</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>325</v>
+        <v>460</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>461</v>
@@ -4308,16 +4420,16 @@
         <v>15</v>
       </c>
       <c r="U9" s="1">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="V9" s="1">
-        <v>21</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>325</v>
+        <v>91</v>
+      </c>
+      <c r="W9" s="1">
+        <v>21.58</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3.71</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>463</v>
@@ -4404,7 +4516,7 @@
         <v>433</v>
       </c>
       <c r="GB9" s="1" t="s">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="GR9" s="1" t="s">
         <v>77</v>
@@ -4419,7 +4531,7 @@
         <v>433</v>
       </c>
       <c r="HP9" s="1" t="s">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="HT9" s="1" t="s">
         <v>465</v>
@@ -4430,7 +4542,7 @@
     </row>
     <row r="10" spans="1:231" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B10" s="1">
         <v>19</v>
@@ -4451,7 +4563,7 @@
         <v>467</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
@@ -4469,7 +4581,7 @@
         <v>305</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>325</v>
+        <v>469</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>461</v>
@@ -4490,10 +4602,10 @@
         <v>15</v>
       </c>
       <c r="U10" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V10" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>325</v>
@@ -4633,7 +4745,7 @@
         <v>467</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6</v>
@@ -4672,10 +4784,10 @@
         <v>15</v>
       </c>
       <c r="U11" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V11" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>325</v>
@@ -4794,7 +4906,7 @@
     </row>
     <row r="12" spans="1:231" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B12" s="1">
         <v>19</v>
@@ -4815,7 +4927,7 @@
         <v>467</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6</v>
@@ -4833,13 +4945,13 @@
         <v>305</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>469</v>
+        <v>325</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>461</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>14</v>
@@ -4851,19 +4963,19 @@
         <v>276</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>336</v>
+        <v>15</v>
       </c>
       <c r="U12" s="1">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="V12" s="1">
-        <v>109</v>
-      </c>
-      <c r="W12" s="1">
-        <v>21.58</v>
-      </c>
-      <c r="X12" s="1">
-        <v>3.71</v>
+        <v>22</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>463</v>
@@ -4976,7 +5088,7 @@
     </row>
     <row r="13" spans="1:231" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B13" s="1">
         <v>19</v>
@@ -4997,7 +5109,7 @@
         <v>467</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6</v>
@@ -5021,7 +5133,7 @@
         <v>461</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>14</v>
@@ -5033,13 +5145,13 @@
         <v>276</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>336</v>
+        <v>15</v>
       </c>
       <c r="U13" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="V13" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>325</v>
@@ -5158,7 +5270,7 @@
     </row>
     <row r="14" spans="1:231" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B14" s="1">
         <v>19</v>
@@ -5179,7 +5291,7 @@
         <v>467</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>6</v>
@@ -5197,7 +5309,7 @@
         <v>305</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>325</v>
+        <v>469</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>461</v>
@@ -5218,16 +5330,16 @@
         <v>336</v>
       </c>
       <c r="U14" s="1">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="V14" s="1">
-        <v>36</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>325</v>
+        <v>109</v>
+      </c>
+      <c r="W14" s="1">
+        <v>21.58</v>
+      </c>
+      <c r="X14" s="1">
+        <v>3.71</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>463</v>
@@ -5361,7 +5473,7 @@
         <v>467</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>6</v>
@@ -5400,10 +5512,10 @@
         <v>336</v>
       </c>
       <c r="U15" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V15" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>325</v>
@@ -5522,118 +5634,118 @@
     </row>
     <row r="16" spans="1:231" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B16" s="1">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="F16" s="1">
         <v>2020</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>490</v>
+        <v>14</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>491</v>
+        <v>15</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c r="U16" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V16" s="1">
-        <v>17</v>
-      </c>
-      <c r="W16" s="1">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="X16" s="1">
-        <v>1.77</v>
+        <v>36</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>15</v>
+        <v>463</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB16" s="1" t="s">
-        <v>15</v>
+      <c r="AB16" s="1">
+        <v>12</v>
       </c>
       <c r="AC16" s="1">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AD16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>493</v>
+        <v>20</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>494</v>
+        <v>312</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>495</v>
+        <v>323</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>496</v>
+        <v>22</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>497</v>
+        <v>315</v>
       </c>
       <c r="BE16" s="1" t="s">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="BF16" s="1" t="s">
         <v>40</v>
@@ -5645,506 +5757,434 @@
         <v>288</v>
       </c>
       <c r="BP16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="CG16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CW16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CX16" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="DN16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="ED16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="EE16" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="EU16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="FK16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="FL16" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="GB16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="GR16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="GS16" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="HD16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="HE16" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="HP16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="HT16" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="HW16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:231" s="1" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B17" s="1">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="U17" s="1">
+        <v>36</v>
+      </c>
+      <c r="V17" s="1">
+        <v>36</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>60</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="CG17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CW17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CX17" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="DN17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="ED17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="EE17" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="EU17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="FK17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="FL17" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="GB17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="GR17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="GS17" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="HD17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="HE17" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="HP17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="HT17" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="HW17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:231" s="1" customFormat="1">
+      <c r="A18" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B18" s="1">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18" s="1">
+        <v>31</v>
+      </c>
+      <c r="V18" s="1">
+        <v>17</v>
+      </c>
+      <c r="W18" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="BQ16" s="1" t="s">
+      <c r="AF18" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="BE18" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="BF18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="CG16" s="1" t="s">
+      <c r="CG18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="CW16" s="1" t="s">
+      <c r="CW18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="CX16" s="1" t="s">
+      <c r="CX18" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="DN16" s="1" t="s">
+      <c r="DN18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="ED16" s="1" t="s">
+      <c r="ED18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="EE16" s="1" t="s">
+      <c r="EE18" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="EU16" s="1" t="s">
+      <c r="EU18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="FK16" s="1" t="s">
+      <c r="FK18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="FL16" s="1" t="s">
+      <c r="FL18" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="GB16" s="1" t="s">
+      <c r="GB18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="GR16" s="1" t="s">
+      <c r="GR18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="GS16" s="1" t="s">
+      <c r="GS18" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="HD16" s="1" t="s">
+      <c r="HD18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="HE16" s="1" t="s">
+      <c r="HE18" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="HP16" s="1" t="s">
+      <c r="HP18" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="HQ16" s="1" t="s">
+      <c r="HQ18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="HR16" s="1" t="s">
+      <c r="HR18" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="HS16" s="1" t="s">
+      <c r="HS18" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="HT16" s="1" t="s">
+      <c r="HT18" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="HW16" s="1" t="s">
+      <c r="HW18" s="1" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:231">
-      <c r="B17">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" t="s">
-        <v>502</v>
-      </c>
-      <c r="E17" t="s">
-        <v>503</v>
-      </c>
-      <c r="F17">
-        <v>2020</v>
-      </c>
-      <c r="G17" t="s">
-        <v>504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>505</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>506</v>
-      </c>
-      <c r="L17" t="s">
-        <v>507</v>
-      </c>
-      <c r="M17" t="s">
-        <v>273</v>
-      </c>
-      <c r="N17" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" t="s">
-        <v>488</v>
-      </c>
-      <c r="P17" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>509</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>276</v>
-      </c>
-      <c r="T17" t="s">
-        <v>510</v>
-      </c>
-      <c r="U17">
-        <v>90</v>
-      </c>
-      <c r="V17">
-        <v>69</v>
-      </c>
-      <c r="W17">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="X17">
-        <v>2.1</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB17">
-        <v>48</v>
-      </c>
-      <c r="AC17">
-        <v>40</v>
-      </c>
-      <c r="AD17">
-        <v>5</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>512</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>513</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>515</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>313</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>516</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>22</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>517</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>287</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>288</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>512</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>16</v>
-      </c>
-      <c r="CG17" t="s">
-        <v>512</v>
-      </c>
-      <c r="CW17" t="s">
-        <v>512</v>
-      </c>
-      <c r="CX17" t="s">
-        <v>16</v>
-      </c>
-      <c r="DN17" t="s">
-        <v>512</v>
-      </c>
-      <c r="ED17" t="s">
-        <v>512</v>
-      </c>
-      <c r="EE17" t="s">
-        <v>16</v>
-      </c>
-      <c r="EU17" t="s">
-        <v>512</v>
-      </c>
-      <c r="FK17" t="s">
-        <v>512</v>
-      </c>
-      <c r="FL17" t="s">
-        <v>16</v>
-      </c>
-      <c r="GB17" t="s">
-        <v>518</v>
-      </c>
-      <c r="GR17" t="s">
-        <v>512</v>
-      </c>
-      <c r="GS17" t="s">
-        <v>433</v>
-      </c>
-      <c r="HD17" t="s">
-        <v>512</v>
-      </c>
-      <c r="HE17" t="s">
-        <v>433</v>
-      </c>
-      <c r="HP17" t="s">
-        <v>512</v>
-      </c>
-      <c r="HW17" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:231">
-      <c r="B18">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" t="s">
-        <v>519</v>
-      </c>
-      <c r="E18" t="s">
-        <v>503</v>
-      </c>
-      <c r="F18">
-        <v>2020</v>
-      </c>
-      <c r="G18" t="s">
-        <v>504</v>
-      </c>
-      <c r="H18" t="s">
-        <v>520</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" t="s">
-        <v>506</v>
-      </c>
-      <c r="L18" t="s">
-        <v>507</v>
-      </c>
-      <c r="M18" t="s">
-        <v>273</v>
-      </c>
-      <c r="N18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" t="s">
-        <v>488</v>
-      </c>
-      <c r="P18" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>509</v>
-      </c>
-      <c r="R18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S18" t="s">
-        <v>276</v>
-      </c>
-      <c r="T18" t="s">
-        <v>510</v>
-      </c>
-      <c r="U18">
-        <v>18</v>
-      </c>
-      <c r="V18" t="s">
-        <v>521</v>
-      </c>
-      <c r="W18" t="s">
-        <v>522</v>
-      </c>
-      <c r="X18" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB18">
-        <v>48</v>
-      </c>
-      <c r="AC18">
-        <v>40</v>
-      </c>
-      <c r="AD18">
-        <v>5</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>512</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>524</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>525</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>515</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>313</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>516</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>22</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>517</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>287</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>288</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>518</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>16</v>
-      </c>
-      <c r="BR18">
-        <v>429</v>
-      </c>
-      <c r="BS18">
-        <v>574</v>
-      </c>
-      <c r="BT18">
-        <v>619</v>
-      </c>
-      <c r="CG18" t="s">
-        <v>512</v>
-      </c>
-      <c r="CH18">
-        <v>546</v>
-      </c>
-      <c r="CI18">
-        <v>608</v>
-      </c>
-      <c r="CJ18">
-        <v>598</v>
-      </c>
-      <c r="CW18" t="s">
-        <v>512</v>
-      </c>
-      <c r="CX18" t="s">
-        <v>16</v>
-      </c>
-      <c r="CY18">
-        <v>57</v>
-      </c>
-      <c r="CZ18">
-        <v>69</v>
-      </c>
-      <c r="DA18">
-        <v>58</v>
-      </c>
-      <c r="DN18" t="s">
-        <v>512</v>
-      </c>
-      <c r="DO18">
-        <v>79</v>
-      </c>
-      <c r="DP18">
-        <v>65</v>
-      </c>
-      <c r="DQ18">
-        <v>55</v>
-      </c>
-      <c r="ED18" t="s">
-        <v>512</v>
-      </c>
-      <c r="EE18" t="s">
-        <v>16</v>
-      </c>
-      <c r="EF18">
-        <v>0.86</v>
-      </c>
-      <c r="EG18">
-        <v>0.86</v>
-      </c>
-      <c r="EH18">
-        <v>0.82</v>
-      </c>
-      <c r="EU18" t="s">
-        <v>77</v>
-      </c>
-      <c r="EV18">
-        <v>0.95</v>
-      </c>
-      <c r="EW18">
-        <v>0.87</v>
-      </c>
-      <c r="EX18">
-        <v>0.79</v>
-      </c>
-      <c r="FK18" t="s">
-        <v>77</v>
-      </c>
-      <c r="FL18" t="s">
-        <v>16</v>
-      </c>
-      <c r="FM18">
-        <v>0.09</v>
-      </c>
-      <c r="FN18">
-        <v>0.12</v>
-      </c>
-      <c r="FO18">
-        <v>0.12</v>
-      </c>
-      <c r="GB18" t="s">
-        <v>77</v>
-      </c>
-      <c r="GC18">
-        <v>0.05</v>
-      </c>
-      <c r="GD18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="GE18">
-        <v>0.18</v>
-      </c>
-      <c r="GR18" t="s">
-        <v>77</v>
-      </c>
-      <c r="GS18" t="s">
-        <v>433</v>
-      </c>
-      <c r="HD18" t="s">
-        <v>512</v>
-      </c>
-      <c r="HE18" t="s">
-        <v>433</v>
-      </c>
-      <c r="HP18" t="s">
-        <v>512</v>
-      </c>
-      <c r="HQ18" t="s">
-        <v>422</v>
-      </c>
-      <c r="HS18" t="s">
-        <v>526</v>
-      </c>
-      <c r="HT18" t="s">
-        <v>527</v>
-      </c>
-      <c r="HU18" t="s">
-        <v>528</v>
-      </c>
-      <c r="HW18" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:231">
@@ -6158,7 +6198,7 @@
         <v>502</v>
       </c>
       <c r="E19" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -6167,7 +6207,7 @@
         <v>504</v>
       </c>
       <c r="H19" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
@@ -6206,16 +6246,16 @@
         <v>510</v>
       </c>
       <c r="U19">
-        <v>18</v>
-      </c>
-      <c r="V19" t="s">
-        <v>523</v>
-      </c>
-      <c r="W19" t="s">
-        <v>523</v>
-      </c>
-      <c r="X19" t="s">
-        <v>523</v>
+        <v>90</v>
+      </c>
+      <c r="V19">
+        <v>69</v>
+      </c>
+      <c r="W19">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="X19">
+        <v>2.1</v>
       </c>
       <c r="Y19" t="s">
         <v>511</v>
@@ -6242,16 +6282,16 @@
         <v>513</v>
       </c>
       <c r="AG19" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="AH19" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="AI19" t="s">
         <v>313</v>
       </c>
       <c r="AJ19" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="AK19" t="s">
         <v>22</v>
@@ -6269,85 +6309,31 @@
         <v>288</v>
       </c>
       <c r="BP19" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="BQ19" t="s">
         <v>16</v>
       </c>
-      <c r="BR19">
-        <v>454</v>
-      </c>
-      <c r="BS19">
-        <v>574</v>
-      </c>
-      <c r="BT19">
-        <v>611</v>
-      </c>
       <c r="CG19" t="s">
         <v>512</v>
       </c>
-      <c r="CH19">
-        <v>556</v>
-      </c>
-      <c r="CI19">
-        <v>627</v>
-      </c>
-      <c r="CJ19">
-        <v>611</v>
-      </c>
       <c r="CW19" t="s">
-        <v>77</v>
+        <v>512</v>
       </c>
       <c r="CX19" t="s">
         <v>16</v>
       </c>
-      <c r="CY19">
-        <v>40</v>
-      </c>
-      <c r="CZ19">
-        <v>67</v>
-      </c>
-      <c r="DA19">
-        <v>53</v>
-      </c>
       <c r="DN19" t="s">
-        <v>533</v>
-      </c>
-      <c r="DO19">
-        <v>61</v>
-      </c>
-      <c r="DP19">
-        <v>56</v>
-      </c>
-      <c r="DQ19">
-        <v>68</v>
+        <v>512</v>
       </c>
       <c r="ED19" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="EE19" t="s">
         <v>16</v>
       </c>
-      <c r="EF19">
-        <v>0.81</v>
-      </c>
-      <c r="EG19">
-        <v>0.76</v>
-      </c>
-      <c r="EH19">
-        <v>0.82</v>
-      </c>
       <c r="EU19" t="s">
-        <v>533</v>
-      </c>
-      <c r="EV19">
-        <v>0.97</v>
-      </c>
-      <c r="EW19">
-        <v>0.84</v>
-      </c>
-      <c r="EX19">
-        <v>0.78</v>
+        <v>512</v>
       </c>
       <c r="FK19" t="s">
         <v>512</v>
@@ -6355,29 +6341,11 @@
       <c r="FL19" t="s">
         <v>16</v>
       </c>
-      <c r="FM19">
-        <v>0.1</v>
-      </c>
-      <c r="FN19">
-        <v>0.11</v>
-      </c>
-      <c r="FO19">
-        <v>0.12</v>
-      </c>
       <c r="GB19" t="s">
         <v>518</v>
       </c>
-      <c r="GC19">
-        <v>0.4</v>
-      </c>
-      <c r="GD19">
-        <v>0.1</v>
-      </c>
-      <c r="GE19">
-        <v>0.15</v>
-      </c>
       <c r="GR19" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="GS19" t="s">
         <v>433</v>
@@ -6391,26 +6359,11 @@
       <c r="HP19" t="s">
         <v>512</v>
       </c>
-      <c r="HQ19" t="s">
-        <v>422</v>
-      </c>
-      <c r="HS19" t="s">
-        <v>526</v>
-      </c>
-      <c r="HT19" t="s">
-        <v>527</v>
-      </c>
-      <c r="HU19" t="s">
-        <v>528</v>
-      </c>
       <c r="HW19" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:231">
-      <c r="A20" t="s">
-        <v>534</v>
-      </c>
       <c r="B20">
         <v>44</v>
       </c>
@@ -6418,10 +6371,10 @@
         <v>266</v>
       </c>
       <c r="D20" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="E20" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="F20">
         <v>2020</v>
@@ -6430,7 +6383,7 @@
         <v>504</v>
       </c>
       <c r="H20" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
@@ -6472,13 +6425,13 @@
         <v>18</v>
       </c>
       <c r="V20" t="s">
-        <v>325</v>
+        <v>521</v>
       </c>
       <c r="W20" t="s">
+        <v>522</v>
+      </c>
+      <c r="X20" t="s">
         <v>523</v>
-      </c>
-      <c r="X20" t="s">
-        <v>537</v>
       </c>
       <c r="Y20" t="s">
         <v>511</v>
@@ -6502,13 +6455,13 @@
         <v>512</v>
       </c>
       <c r="AF20" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="AG20" t="s">
         <v>525</v>
       </c>
       <c r="AH20" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="AI20" t="s">
         <v>313</v>
@@ -6520,7 +6473,7 @@
         <v>22</v>
       </c>
       <c r="BE20" t="s">
-        <v>77</v>
+        <v>517</v>
       </c>
       <c r="BF20" t="s">
         <v>40</v>
@@ -6532,58 +6485,58 @@
         <v>288</v>
       </c>
       <c r="BP20" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="BQ20" t="s">
         <v>16</v>
       </c>
       <c r="BR20">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="BS20">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="BT20">
+        <v>619</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>512</v>
+      </c>
+      <c r="CH20">
+        <v>546</v>
+      </c>
+      <c r="CI20">
         <v>608</v>
       </c>
-      <c r="CG20" t="s">
-        <v>517</v>
-      </c>
-      <c r="CH20">
-        <v>533</v>
-      </c>
-      <c r="CI20">
-        <v>605</v>
-      </c>
       <c r="CJ20">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="CW20" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="CX20" t="s">
         <v>16</v>
       </c>
       <c r="CY20">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="CZ20">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="DA20">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="DN20" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="DO20">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="DP20">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="DQ20">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="ED20" t="s">
         <v>512</v>
@@ -6595,25 +6548,25 @@
         <v>0.86</v>
       </c>
       <c r="EG20">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="EH20">
+        <v>0.82</v>
+      </c>
+      <c r="EU20" t="s">
+        <v>77</v>
+      </c>
+      <c r="EV20">
+        <v>0.95</v>
+      </c>
+      <c r="EW20">
         <v>0.87</v>
       </c>
-      <c r="EU20" t="s">
-        <v>512</v>
-      </c>
-      <c r="EV20">
-        <v>0.96</v>
-      </c>
-      <c r="EW20">
-        <v>0.88</v>
-      </c>
       <c r="EX20">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="FK20" t="s">
-        <v>512</v>
+        <v>77</v>
       </c>
       <c r="FL20" t="s">
         <v>16</v>
@@ -6622,31 +6575,31 @@
         <v>0.09</v>
       </c>
       <c r="FN20">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="FO20">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="GB20" t="s">
         <v>77</v>
       </c>
       <c r="GC20">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="GD20">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="GE20">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="GR20" t="s">
-        <v>517</v>
+        <v>77</v>
       </c>
       <c r="GS20" t="s">
         <v>433</v>
       </c>
       <c r="HD20" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="HE20" t="s">
         <v>433</v>
@@ -6667,13 +6620,10 @@
         <v>528</v>
       </c>
       <c r="HW20" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:231">
-      <c r="A21" t="s">
-        <v>534</v>
-      </c>
       <c r="B21">
         <v>44</v>
       </c>
@@ -6684,7 +6634,7 @@
         <v>502</v>
       </c>
       <c r="E21" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="F21">
         <v>2020</v>
@@ -6693,7 +6643,7 @@
         <v>504</v>
       </c>
       <c r="H21" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="I21" t="s">
         <v>6</v>
@@ -6735,13 +6685,13 @@
         <v>18</v>
       </c>
       <c r="V21" t="s">
-        <v>325</v>
+        <v>523</v>
       </c>
       <c r="W21" t="s">
         <v>523</v>
       </c>
       <c r="X21" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="Y21" t="s">
         <v>511</v>
@@ -6765,25 +6715,25 @@
         <v>512</v>
       </c>
       <c r="AF21" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="AG21" t="s">
         <v>525</v>
       </c>
       <c r="AH21" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AI21" t="s">
         <v>313</v>
       </c>
       <c r="AJ21" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="AK21" t="s">
         <v>22</v>
       </c>
       <c r="BE21" t="s">
-        <v>77</v>
+        <v>517</v>
       </c>
       <c r="BF21" t="s">
         <v>40</v>
@@ -6795,85 +6745,85 @@
         <v>288</v>
       </c>
       <c r="BP21" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="BQ21" t="s">
         <v>16</v>
       </c>
       <c r="BR21">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="BS21">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="BT21">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="CG21" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="CH21">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="CI21">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="CJ21">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="CW21" t="s">
-        <v>518</v>
+        <v>77</v>
       </c>
       <c r="CX21" t="s">
         <v>16</v>
       </c>
       <c r="CY21">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="CZ21">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="DA21">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="DN21" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="DO21">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="DP21">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="DQ21">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="ED21" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="EE21" t="s">
         <v>16</v>
       </c>
       <c r="EF21">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="EG21">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="EH21">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="EU21" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="EV21">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="EW21">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="EX21">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="FK21" t="s">
         <v>512</v>
@@ -6882,40 +6832,40 @@
         <v>16</v>
       </c>
       <c r="FM21">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="FN21">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="FO21">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="GB21" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="GC21">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="GD21">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="GE21">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="GR21" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="GS21" t="s">
         <v>433</v>
       </c>
       <c r="HD21" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="HE21" t="s">
         <v>433</v>
       </c>
       <c r="HP21" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="HQ21" t="s">
         <v>422</v>
@@ -6947,7 +6897,7 @@
         <v>502</v>
       </c>
       <c r="E22" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F22">
         <v>2020</v>
@@ -6956,7 +6906,7 @@
         <v>504</v>
       </c>
       <c r="H22" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
@@ -6998,13 +6948,13 @@
         <v>18</v>
       </c>
       <c r="V22" t="s">
-        <v>523</v>
+        <v>325</v>
       </c>
       <c r="W22" t="s">
         <v>523</v>
       </c>
       <c r="X22" t="s">
-        <v>325</v>
+        <v>537</v>
       </c>
       <c r="Y22" t="s">
         <v>511</v>
@@ -7025,16 +6975,16 @@
         <v>5</v>
       </c>
       <c r="AE22" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AF22" t="s">
         <v>538</v>
       </c>
       <c r="AG22" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="AH22" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AI22" t="s">
         <v>313</v>
@@ -7046,7 +6996,7 @@
         <v>22</v>
       </c>
       <c r="BE22" t="s">
-        <v>518</v>
+        <v>77</v>
       </c>
       <c r="BF22" t="s">
         <v>40</v>
@@ -7064,79 +7014,79 @@
         <v>16</v>
       </c>
       <c r="BR22">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="BS22">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="BT22">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="CG22" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="CH22">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="CI22">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="CJ22">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="CW22" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="CX22" t="s">
         <v>16</v>
       </c>
       <c r="CY22">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CZ22">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="DA22">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="DN22" t="s">
+        <v>517</v>
+      </c>
+      <c r="DO22">
+        <v>92</v>
+      </c>
+      <c r="DP22">
+        <v>95</v>
+      </c>
+      <c r="DQ22">
+        <v>91</v>
+      </c>
+      <c r="ED22" t="s">
         <v>512</v>
-      </c>
-      <c r="DO22">
-        <v>73</v>
-      </c>
-      <c r="DP22">
-        <v>70</v>
-      </c>
-      <c r="DQ22">
-        <v>62</v>
-      </c>
-      <c r="ED22" t="s">
-        <v>533</v>
       </c>
       <c r="EE22" t="s">
         <v>16</v>
       </c>
       <c r="EF22">
+        <v>0.86</v>
+      </c>
+      <c r="EG22">
+        <v>0.84</v>
+      </c>
+      <c r="EH22">
         <v>0.87</v>
-      </c>
-      <c r="EG22">
-        <v>0.86</v>
-      </c>
-      <c r="EH22">
-        <v>0.7</v>
       </c>
       <c r="EU22" t="s">
         <v>512</v>
       </c>
       <c r="EV22">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="EW22">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="EX22">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="FK22" t="s">
         <v>512</v>
@@ -7145,34 +7095,34 @@
         <v>16</v>
       </c>
       <c r="FM22">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="FN22">
         <v>0.09</v>
       </c>
       <c r="FO22">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="GB22" t="s">
         <v>77</v>
       </c>
       <c r="GC22">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="GD22">
         <v>0.08</v>
       </c>
       <c r="GE22">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="GR22" t="s">
-        <v>77</v>
+        <v>517</v>
       </c>
       <c r="GS22" t="s">
         <v>433</v>
       </c>
       <c r="HD22" t="s">
-        <v>77</v>
+        <v>517</v>
       </c>
       <c r="HE22" t="s">
         <v>433</v>
@@ -7198,431 +7148,533 @@
     </row>
     <row r="23" spans="1:231">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="B23">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>502</v>
       </c>
       <c r="E23" t="s">
-        <v>3</v>
+        <v>540</v>
       </c>
       <c r="F23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="H23" t="s">
-        <v>5</v>
+        <v>541</v>
       </c>
       <c r="I23" t="s">
         <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
+        <v>506</v>
       </c>
       <c r="L23" t="s">
-        <v>9</v>
+        <v>507</v>
       </c>
       <c r="M23" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="N23" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="O23" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="P23" t="s">
-        <v>13</v>
+        <v>508</v>
       </c>
       <c r="Q23" t="s">
-        <v>14</v>
+        <v>509</v>
       </c>
       <c r="R23" t="s">
         <v>15</v>
       </c>
       <c r="S23" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="T23" t="s">
-        <v>15</v>
+        <v>510</v>
       </c>
       <c r="U23">
-        <v>24</v>
-      </c>
-      <c r="V23">
-        <v>15</v>
-      </c>
-      <c r="W23">
-        <v>19.739999999999998</v>
-      </c>
-      <c r="X23">
-        <v>1.28</v>
+        <v>18</v>
+      </c>
+      <c r="V23" t="s">
+        <v>325</v>
+      </c>
+      <c r="W23" t="s">
+        <v>523</v>
+      </c>
+      <c r="X23" t="s">
+        <v>537</v>
       </c>
       <c r="Y23" t="s">
-        <v>15</v>
+        <v>511</v>
       </c>
       <c r="Z23" t="s">
         <v>16</v>
       </c>
       <c r="AA23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB23">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AC23">
-        <v>24</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="AD23">
+        <v>5</v>
       </c>
       <c r="AE23" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
       <c r="AF23" t="s">
-        <v>19</v>
+        <v>538</v>
       </c>
       <c r="AG23" t="s">
-        <v>20</v>
+        <v>525</v>
       </c>
       <c r="AH23" t="s">
-        <v>21</v>
+        <v>539</v>
       </c>
       <c r="AI23" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK23" t="s">
         <v>22</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>24</v>
-      </c>
       <c r="BE23" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="BF23" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>287</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>288</v>
       </c>
       <c r="BP23" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
       <c r="BQ23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="BR23">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="BS23">
-        <v>553</v>
+        <v>592</v>
       </c>
       <c r="BT23">
-        <v>545</v>
+        <v>642</v>
       </c>
       <c r="CG23" t="s">
-        <v>18</v>
+        <v>517</v>
       </c>
       <c r="CH23">
-        <v>602</v>
+        <v>554</v>
       </c>
       <c r="CI23">
-        <v>586</v>
+        <v>640</v>
       </c>
       <c r="CJ23">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="CW23" t="s">
-        <v>18</v>
+        <v>518</v>
       </c>
       <c r="CX23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="CY23">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="CZ23">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="DA23">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="DN23" t="s">
-        <v>18</v>
+        <v>517</v>
       </c>
       <c r="DO23">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="DP23">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="DQ23">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="ED23" t="s">
-        <v>18</v>
+        <v>518</v>
       </c>
       <c r="EE23" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="EF23">
+        <v>0.89</v>
+      </c>
+      <c r="EG23">
+        <v>0.87</v>
+      </c>
+      <c r="EH23">
+        <v>0.88</v>
       </c>
       <c r="EU23" t="s">
-        <v>18</v>
+        <v>518</v>
+      </c>
+      <c r="EV23">
+        <v>0.96</v>
+      </c>
+      <c r="EW23">
+        <v>0.88</v>
+      </c>
+      <c r="EX23">
+        <v>0.79</v>
       </c>
       <c r="FK23" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
       <c r="FL23" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="FM23">
+        <v>0.08</v>
+      </c>
+      <c r="FN23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="FO23">
+        <v>0.08</v>
       </c>
       <c r="GB23" t="s">
-        <v>18</v>
+        <v>512</v>
+      </c>
+      <c r="GC23">
+        <v>0.02</v>
+      </c>
+      <c r="GD23">
+        <v>0.09</v>
+      </c>
+      <c r="GE23">
+        <v>0.12</v>
       </c>
       <c r="GR23" t="s">
-        <v>18</v>
+        <v>533</v>
       </c>
       <c r="GS23" t="s">
-        <v>15</v>
+        <v>433</v>
       </c>
       <c r="HD23" t="s">
-        <v>18</v>
+        <v>517</v>
       </c>
       <c r="HE23" t="s">
-        <v>15</v>
+        <v>433</v>
       </c>
       <c r="HP23" t="s">
-        <v>18</v>
+        <v>518</v>
       </c>
       <c r="HQ23" t="s">
-        <v>28</v>
-      </c>
-      <c r="HR23" t="s">
-        <v>29</v>
+        <v>422</v>
+      </c>
+      <c r="HS23" t="s">
+        <v>526</v>
+      </c>
+      <c r="HT23" t="s">
+        <v>527</v>
+      </c>
+      <c r="HU23" t="s">
+        <v>528</v>
       </c>
       <c r="HW23" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:231">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>502</v>
       </c>
       <c r="E24" t="s">
-        <v>3</v>
+        <v>542</v>
       </c>
       <c r="F24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>543</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K24" t="s">
-        <v>8</v>
+        <v>506</v>
       </c>
       <c r="L24" t="s">
-        <v>9</v>
+        <v>507</v>
       </c>
       <c r="M24" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="O24" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="P24" t="s">
-        <v>13</v>
+        <v>508</v>
       </c>
       <c r="Q24" t="s">
-        <v>14</v>
+        <v>509</v>
       </c>
       <c r="R24" t="s">
         <v>15</v>
       </c>
       <c r="S24" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="T24" t="s">
-        <v>15</v>
+        <v>510</v>
       </c>
       <c r="U24">
-        <v>24</v>
-      </c>
-      <c r="V24">
-        <v>15</v>
-      </c>
-      <c r="W24">
-        <v>19.739999999999998</v>
-      </c>
-      <c r="X24">
-        <v>1.28</v>
+        <v>18</v>
+      </c>
+      <c r="V24" t="s">
+        <v>523</v>
+      </c>
+      <c r="W24" t="s">
+        <v>523</v>
+      </c>
+      <c r="X24" t="s">
+        <v>325</v>
       </c>
       <c r="Y24" t="s">
-        <v>15</v>
+        <v>511</v>
       </c>
       <c r="Z24" t="s">
         <v>16</v>
       </c>
       <c r="AA24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB24">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AC24">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="AD24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="s">
-        <v>18</v>
+        <v>518</v>
       </c>
       <c r="AF24" t="s">
-        <v>19</v>
+        <v>538</v>
       </c>
       <c r="AG24" t="s">
-        <v>20</v>
+        <v>544</v>
       </c>
       <c r="AH24" t="s">
-        <v>21</v>
+        <v>545</v>
       </c>
       <c r="AI24" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK24" t="s">
         <v>22</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>24</v>
-      </c>
       <c r="BE24" t="s">
-        <v>18</v>
+        <v>518</v>
       </c>
       <c r="BF24" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>287</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>288</v>
       </c>
       <c r="BP24" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
       <c r="BQ24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="BR24">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="BS24">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="BT24">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="CG24" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
       <c r="CH24">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="CI24">
-        <v>562</v>
+        <v>645</v>
       </c>
       <c r="CJ24">
-        <v>524</v>
+        <v>626</v>
       </c>
       <c r="CW24" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
       <c r="CX24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="CY24">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="CZ24">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="DA24">
+        <v>58</v>
+      </c>
+      <c r="DN24" t="s">
+        <v>512</v>
+      </c>
+      <c r="DO24">
+        <v>73</v>
+      </c>
+      <c r="DP24">
+        <v>70</v>
+      </c>
+      <c r="DQ24">
         <v>62</v>
       </c>
-      <c r="DN24" t="s">
-        <v>18</v>
-      </c>
-      <c r="DO24">
-        <v>66</v>
-      </c>
-      <c r="DP24">
-        <v>64</v>
-      </c>
-      <c r="DQ24">
-        <v>80</v>
-      </c>
       <c r="ED24" t="s">
-        <v>18</v>
+        <v>533</v>
       </c>
       <c r="EE24" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="EF24">
+        <v>0.87</v>
+      </c>
+      <c r="EG24">
+        <v>0.86</v>
+      </c>
+      <c r="EH24">
+        <v>0.7</v>
       </c>
       <c r="EU24" t="s">
-        <v>18</v>
+        <v>512</v>
+      </c>
+      <c r="EV24">
+        <v>0.94</v>
+      </c>
+      <c r="EW24">
+        <v>0.87</v>
+      </c>
+      <c r="EX24">
+        <v>0.82</v>
       </c>
       <c r="FK24" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
       <c r="FL24" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="FM24">
+        <v>0.1</v>
+      </c>
+      <c r="FN24">
+        <v>0.09</v>
+      </c>
+      <c r="FO24">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="GB24" t="s">
-        <v>18</v>
+        <v>77</v>
+      </c>
+      <c r="GC24">
+        <v>0.06</v>
+      </c>
+      <c r="GD24">
+        <v>0.08</v>
+      </c>
+      <c r="GE24">
+        <v>0.16</v>
       </c>
       <c r="GR24" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="GS24" t="s">
-        <v>15</v>
+        <v>433</v>
       </c>
       <c r="HD24" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="HE24" t="s">
-        <v>15</v>
+        <v>433</v>
       </c>
       <c r="HP24" t="s">
-        <v>18</v>
+        <v>512</v>
+      </c>
+      <c r="HQ24" t="s">
+        <v>422</v>
+      </c>
+      <c r="HS24" t="s">
+        <v>526</v>
+      </c>
+      <c r="HT24" t="s">
+        <v>527</v>
+      </c>
+      <c r="HU24" t="s">
+        <v>528</v>
       </c>
       <c r="HW24" t="s">
-        <v>18</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:231">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>51</v>
@@ -7643,7 +7695,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
         <v>6</v>
@@ -7706,10 +7758,10 @@
         <v>20</v>
       </c>
       <c r="AC25">
-        <v>96</v>
-      </c>
-      <c r="AD25">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>15</v>
       </c>
       <c r="AE25" t="s">
         <v>18</v>
@@ -7745,25 +7797,25 @@
         <v>26</v>
       </c>
       <c r="BR25">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="BS25">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="BT25">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="CG25" t="s">
         <v>18</v>
       </c>
       <c r="CH25">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="CI25">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="CJ25">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="CW25" t="s">
         <v>18</v>
@@ -7772,25 +7824,25 @@
         <v>26</v>
       </c>
       <c r="CY25">
+        <v>58</v>
+      </c>
+      <c r="CZ25">
+        <v>60</v>
+      </c>
+      <c r="DA25">
+        <v>41</v>
+      </c>
+      <c r="DN25" t="s">
+        <v>18</v>
+      </c>
+      <c r="DO25">
         <v>64</v>
       </c>
-      <c r="CZ25">
-        <v>47</v>
-      </c>
-      <c r="DA25">
-        <v>42</v>
-      </c>
-      <c r="DN25" t="s">
-        <v>18</v>
-      </c>
-      <c r="DO25">
-        <v>58</v>
-      </c>
       <c r="DP25">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="DQ25">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="ED25" t="s">
         <v>18</v>
@@ -7824,6 +7876,12 @@
       </c>
       <c r="HP25" t="s">
         <v>18</v>
+      </c>
+      <c r="HQ25" t="s">
+        <v>28</v>
+      </c>
+      <c r="HR25" t="s">
+        <v>29</v>
       </c>
       <c r="HW25" t="s">
         <v>18</v>
@@ -7831,7 +7889,7 @@
     </row>
     <row r="26" spans="1:231">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>51</v>
@@ -7852,7 +7910,7 @@
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
         <v>6</v>
@@ -7954,25 +8012,25 @@
         <v>26</v>
       </c>
       <c r="BR26">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="BS26">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="BT26">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="CG26" t="s">
         <v>18</v>
       </c>
       <c r="CH26">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="CI26">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="CJ26">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="CW26" t="s">
         <v>18</v>
@@ -7981,25 +8039,25 @@
         <v>26</v>
       </c>
       <c r="CY26">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="CZ26">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="DA26">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="DN26" t="s">
         <v>18</v>
       </c>
       <c r="DO26">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="DP26">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="DQ26">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="ED26" t="s">
         <v>18</v>
@@ -8040,7 +8098,7 @@
     </row>
     <row r="27" spans="1:231">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>51</v>
@@ -8061,7 +8119,7 @@
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s">
         <v>6</v>
@@ -8073,19 +8131,19 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="N27" t="s">
         <v>11</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="P27" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q27" t="s">
         <v>14</v>
@@ -8100,16 +8158,16 @@
         <v>15</v>
       </c>
       <c r="U27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W27">
-        <v>19</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="X27">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="Y27" t="s">
         <v>15</v>
@@ -8118,16 +8176,16 @@
         <v>16</v>
       </c>
       <c r="AA27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB27">
         <v>20</v>
       </c>
       <c r="AC27">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="AD27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="s">
         <v>18</v>
@@ -8139,19 +8197,22 @@
         <v>20</v>
       </c>
       <c r="AH27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>23</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AK27" t="s">
         <v>24</v>
       </c>
       <c r="BE27" t="s">
         <v>18</v>
       </c>
       <c r="BF27" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="BP27" t="s">
         <v>18</v>
@@ -8160,19 +8221,25 @@
         <v>26</v>
       </c>
       <c r="BR27">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="BS27">
-        <v>641</v>
+        <v>563</v>
+      </c>
+      <c r="BT27">
+        <v>546</v>
       </c>
       <c r="CG27" t="s">
         <v>18</v>
       </c>
       <c r="CH27">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="CI27">
-        <v>602</v>
+        <v>583</v>
+      </c>
+      <c r="CJ27">
+        <v>593</v>
       </c>
       <c r="CW27" t="s">
         <v>18</v>
@@ -8181,19 +8248,25 @@
         <v>26</v>
       </c>
       <c r="CY27">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="CZ27">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="DA27">
+        <v>42</v>
       </c>
       <c r="DN27" t="s">
         <v>18</v>
       </c>
       <c r="DO27">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="DP27">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="DQ27">
+        <v>63</v>
       </c>
       <c r="ED27" t="s">
         <v>18</v>
@@ -8234,7 +8307,7 @@
     </row>
     <row r="28" spans="1:231">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>51</v>
@@ -8255,7 +8328,7 @@
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s">
         <v>6</v>
@@ -8267,19 +8340,19 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="N28" t="s">
         <v>11</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="P28" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q28" t="s">
         <v>14</v>
@@ -8294,16 +8367,16 @@
         <v>15</v>
       </c>
       <c r="U28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W28">
-        <v>19</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="X28">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="Y28" t="s">
         <v>15</v>
@@ -8312,16 +8385,16 @@
         <v>16</v>
       </c>
       <c r="AA28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB28">
         <v>20</v>
       </c>
       <c r="AC28">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="AD28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="s">
         <v>18</v>
@@ -8333,19 +8406,22 @@
         <v>20</v>
       </c>
       <c r="AH28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>23</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AK28" t="s">
         <v>24</v>
       </c>
       <c r="BE28" t="s">
         <v>18</v>
       </c>
       <c r="BF28" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="BP28" t="s">
         <v>18</v>
@@ -8354,19 +8430,25 @@
         <v>26</v>
       </c>
       <c r="BR28">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="BS28">
-        <v>610</v>
+        <v>546</v>
+      </c>
+      <c r="BT28">
+        <v>533</v>
       </c>
       <c r="CG28" t="s">
         <v>18</v>
       </c>
       <c r="CH28">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="CI28">
-        <v>604</v>
+        <v>587</v>
+      </c>
+      <c r="CJ28">
+        <v>575</v>
       </c>
       <c r="CW28" t="s">
         <v>18</v>
@@ -8375,19 +8457,25 @@
         <v>26</v>
       </c>
       <c r="CY28">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CZ28">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="DA28">
+        <v>49</v>
       </c>
       <c r="DN28" t="s">
         <v>18</v>
       </c>
       <c r="DO28">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="DP28">
         <v>57</v>
+      </c>
+      <c r="DQ28">
+        <v>56</v>
       </c>
       <c r="ED28" t="s">
         <v>18</v>
@@ -8428,7 +8516,7 @@
     </row>
     <row r="29" spans="1:231">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>51</v>
@@ -8449,7 +8537,7 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
@@ -8467,7 +8555,7 @@
         <v>37</v>
       </c>
       <c r="N29" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="O29" t="s">
         <v>38</v>
@@ -8476,7 +8564,7 @@
         <v>39</v>
       </c>
       <c r="Q29" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="R29" t="s">
         <v>15</v>
@@ -8488,16 +8576,16 @@
         <v>15</v>
       </c>
       <c r="U29">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="V29">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="W29">
-        <v>23.81</v>
+        <v>19</v>
       </c>
       <c r="X29">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="Y29" t="s">
         <v>15</v>
@@ -8511,94 +8599,190 @@
       <c r="AB29">
         <v>20</v>
       </c>
-      <c r="AF29">
-        <v>5</v>
+      <c r="AC29">
+        <v>50</v>
+      </c>
+      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>19</v>
       </c>
       <c r="AG29" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH29">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>23</v>
       </c>
       <c r="AI29" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR29">
+        <v>481</v>
+      </c>
+      <c r="BS29">
+        <v>641</v>
+      </c>
+      <c r="CG29" t="s">
+        <v>18</v>
+      </c>
+      <c r="CH29">
+        <v>620</v>
+      </c>
+      <c r="CI29">
+        <v>602</v>
+      </c>
+      <c r="CW29" t="s">
+        <v>18</v>
+      </c>
+      <c r="CX29" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY29">
+        <v>52</v>
+      </c>
+      <c r="CZ29">
+        <v>59</v>
+      </c>
+      <c r="DN29" t="s">
+        <v>18</v>
+      </c>
+      <c r="DO29">
+        <v>71</v>
+      </c>
+      <c r="DP29">
+        <v>65</v>
+      </c>
+      <c r="ED29" t="s">
+        <v>18</v>
+      </c>
+      <c r="EE29" t="s">
+        <v>27</v>
+      </c>
+      <c r="EU29" t="s">
+        <v>18</v>
+      </c>
+      <c r="FK29" t="s">
+        <v>18</v>
+      </c>
+      <c r="FL29" t="s">
+        <v>15</v>
+      </c>
+      <c r="GB29" t="s">
+        <v>18</v>
+      </c>
+      <c r="GR29" t="s">
+        <v>18</v>
+      </c>
+      <c r="GS29" t="s">
+        <v>15</v>
+      </c>
+      <c r="HD29" t="s">
+        <v>18</v>
+      </c>
+      <c r="HE29" t="s">
+        <v>15</v>
+      </c>
+      <c r="HP29" t="s">
+        <v>18</v>
+      </c>
+      <c r="HW29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:231">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>2019</v>
       </c>
       <c r="G30" t="s">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>7</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="M30" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="N30" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="O30" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="Q30" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="R30" t="s">
         <v>15</v>
       </c>
       <c r="S30" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="T30" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="U30">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="V30">
-        <v>90</v>
-      </c>
-      <c r="W30" t="s">
-        <v>278</v>
-      </c>
-      <c r="X30" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="W30">
+        <v>19</v>
+      </c>
+      <c r="X30">
+        <v>1.04</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="Z30" t="s">
         <v>16</v>
@@ -8607,279 +8791,189 @@
         <v>15</v>
       </c>
       <c r="AB30">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AC30">
+        <v>50</v>
+      </c>
+      <c r="AD30">
+        <v>2</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="s">
         <v>24</v>
       </c>
-      <c r="AD30">
-        <v>3</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>283</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>285</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>286</v>
-      </c>
       <c r="BE30" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="BF30" t="s">
         <v>40</v>
       </c>
       <c r="BG30" t="s">
-        <v>287</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>288</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>289</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="BP30" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="BQ30" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BR30">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="BS30">
-        <v>578</v>
-      </c>
-      <c r="BT30">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="CG30" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="CH30">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="CI30">
-        <v>645</v>
-      </c>
-      <c r="CJ30">
-        <v>659</v>
+        <v>604</v>
       </c>
       <c r="CW30" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="CX30" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="CY30">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="CZ30">
-        <v>135</v>
-      </c>
-      <c r="DA30">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="DN30" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="DO30">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="DP30">
-        <v>154</v>
-      </c>
-      <c r="DQ30">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="ED30" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="EE30" t="s">
-        <v>16</v>
-      </c>
-      <c r="EF30">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="EG30">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="EH30">
-        <v>0.69199999999999995</v>
+        <v>27</v>
       </c>
       <c r="EU30" t="s">
-        <v>292</v>
-      </c>
-      <c r="EV30">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="EW30">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="EX30">
-        <v>0.754</v>
+        <v>18</v>
       </c>
       <c r="FK30" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="FL30" t="s">
-        <v>16</v>
-      </c>
-      <c r="FM30">
-        <v>0.246</v>
-      </c>
-      <c r="FN30">
-        <v>0.217</v>
-      </c>
-      <c r="FO30">
-        <v>0.23699999999999999</v>
+        <v>15</v>
       </c>
       <c r="GB30" t="s">
-        <v>292</v>
-      </c>
-      <c r="GC30">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="GD30">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="GE30">
-        <v>0.20599999999999999</v>
+        <v>18</v>
       </c>
       <c r="GR30" t="s">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="GS30" t="s">
-        <v>16</v>
-      </c>
-      <c r="GT30">
-        <v>1.99</v>
-      </c>
-      <c r="GU30">
-        <v>1.71</v>
-      </c>
-      <c r="GV30">
-        <v>1.69</v>
+        <v>15</v>
       </c>
       <c r="HD30" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
       <c r="HE30" t="s">
-        <v>16</v>
-      </c>
-      <c r="HF30">
-        <v>1.2</v>
-      </c>
-      <c r="HG30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="HH30">
-        <v>1.1000000000000001</v>
+        <v>15</v>
       </c>
       <c r="HP30" t="s">
-        <v>77</v>
-      </c>
-      <c r="HQ30" t="s">
-        <v>16</v>
-      </c>
-      <c r="HR30" t="s">
-        <v>295</v>
-      </c>
-      <c r="HS30" t="s">
-        <v>296</v>
-      </c>
-      <c r="HT30" t="s">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="HW30" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:231">
-      <c r="B31" t="s">
-        <v>298</v>
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>299</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G31" t="s">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K31" t="s">
-        <v>303</v>
+        <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="M31" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="N31" t="s">
         <v>45</v>
       </c>
       <c r="O31" t="s">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="Q31" t="s">
         <v>46</v>
       </c>
       <c r="R31" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="S31" t="s">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="T31" t="s">
         <v>15</v>
       </c>
       <c r="U31">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V31">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="W31">
-        <v>22.67</v>
+        <v>23.81</v>
       </c>
       <c r="X31">
-        <v>3.11</v>
+        <v>1.33</v>
       </c>
       <c r="Y31" t="s">
         <v>15</v>
@@ -8891,252 +8985,96 @@
         <v>15</v>
       </c>
       <c r="AB31">
-        <v>12</v>
-      </c>
-      <c r="AC31">
-        <v>30</v>
-      </c>
-      <c r="AD31">
-        <v>6</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>310</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>311</v>
+        <v>20</v>
+      </c>
+      <c r="AF31">
+        <v>5</v>
       </c>
       <c r="AG31" t="s">
-        <v>312</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>313</v>
+        <v>15</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
       </c>
       <c r="AI31" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>315</v>
-      </c>
-      <c r="BE31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>287</v>
-      </c>
-      <c r="BG31" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>288</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ31" t="s">
-        <v>316</v>
-      </c>
-      <c r="BR31">
-        <v>638</v>
-      </c>
-      <c r="BS31">
-        <v>687</v>
-      </c>
-      <c r="BT31">
-        <v>715</v>
-      </c>
-      <c r="CG31" t="s">
-        <v>77</v>
-      </c>
-      <c r="CH31">
-        <v>737</v>
-      </c>
-      <c r="CI31">
-        <v>741</v>
-      </c>
-      <c r="CJ31">
-        <v>744</v>
-      </c>
-      <c r="CW31" t="s">
-        <v>77</v>
-      </c>
-      <c r="CX31" t="s">
-        <v>316</v>
-      </c>
-      <c r="CY31">
-        <v>90</v>
-      </c>
-      <c r="CZ31">
-        <v>115</v>
-      </c>
-      <c r="DA31">
-        <v>135</v>
-      </c>
-      <c r="DN31" t="s">
-        <v>77</v>
-      </c>
-      <c r="DO31">
-        <v>112</v>
-      </c>
-      <c r="DP31">
-        <v>121</v>
-      </c>
-      <c r="DQ31">
-        <v>108</v>
-      </c>
-      <c r="ED31" t="s">
-        <v>77</v>
-      </c>
-      <c r="EE31" t="s">
-        <v>316</v>
-      </c>
-      <c r="EF31">
-        <v>0.86</v>
-      </c>
-      <c r="EG31">
-        <v>0.78</v>
-      </c>
-      <c r="EH31">
-        <v>0.71</v>
-      </c>
-      <c r="EU31" t="s">
-        <v>77</v>
-      </c>
-      <c r="EV31">
-        <v>0.8</v>
-      </c>
-      <c r="EW31">
-        <v>0.8</v>
-      </c>
-      <c r="EX31">
-        <v>0.82</v>
-      </c>
-      <c r="FK31" t="s">
-        <v>77</v>
-      </c>
-      <c r="FL31" t="s">
-        <v>316</v>
-      </c>
-      <c r="FM31">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="FN31">
-        <v>0.17</v>
-      </c>
-      <c r="FO31">
-        <v>0.19</v>
-      </c>
-      <c r="GB31" t="s">
-        <v>310</v>
-      </c>
-      <c r="GC31">
-        <v>0.17</v>
-      </c>
-      <c r="GD31">
-        <v>0.15</v>
-      </c>
-      <c r="GE31">
-        <v>0.16</v>
-      </c>
-      <c r="GR31" t="s">
-        <v>77</v>
-      </c>
-      <c r="GS31" t="s">
-        <v>317</v>
-      </c>
-      <c r="HD31" t="s">
-        <v>310</v>
-      </c>
-      <c r="HE31" t="s">
-        <v>317</v>
-      </c>
-      <c r="HP31" t="s">
-        <v>77</v>
-      </c>
-      <c r="HQ31" t="s">
-        <v>318</v>
-      </c>
-      <c r="HR31" t="s">
-        <v>319</v>
-      </c>
-      <c r="HW31" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:231">
-      <c r="B32" t="s">
-        <v>298</v>
+      <c r="A32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32">
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="D32" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="E32" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="F32">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G32" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="H32" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="N32" t="s">
         <v>45</v>
       </c>
       <c r="O32" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="P32" t="s">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="Q32" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="R32" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="S32" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="T32" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="U32">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="V32">
-        <v>21</v>
-      </c>
-      <c r="W32">
-        <v>22.67</v>
-      </c>
-      <c r="X32">
-        <v>3.11</v>
+        <v>90</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>15</v>
       </c>
       <c r="Y32" t="s">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c r="Z32" t="s">
         <v>16</v>
@@ -9145,172 +9083,208 @@
         <v>15</v>
       </c>
       <c r="AB32">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AC32">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AD32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE32" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="AH32" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="AI32" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="AJ32" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="AK32" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="BE32" t="s">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="BF32" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG32" t="s">
         <v>287</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>40</v>
       </c>
       <c r="BH32" t="s">
         <v>288</v>
       </c>
+      <c r="BI32" t="s">
+        <v>289</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>290</v>
+      </c>
       <c r="BP32" t="s">
         <v>77</v>
       </c>
       <c r="BQ32" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="BR32">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="BS32">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="BT32">
-        <v>513</v>
+        <v>618</v>
       </c>
       <c r="CG32" t="s">
         <v>77</v>
       </c>
       <c r="CH32">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="CI32">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="CJ32">
-        <v>566</v>
+        <v>659</v>
       </c>
       <c r="CW32" t="s">
         <v>77</v>
       </c>
       <c r="CX32" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="CY32">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="CZ32">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="DA32">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="DN32" t="s">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="DO32">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="DP32">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="DQ32">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="ED32" t="s">
         <v>77</v>
       </c>
       <c r="EE32" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="EF32">
-        <v>0.9</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="EG32">
-        <v>0.87</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="EH32">
-        <v>0.89</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="EU32" t="s">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="EV32">
-        <v>0.89</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="EW32">
-        <v>0.86</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="EX32">
-        <v>0.92</v>
+        <v>0.754</v>
       </c>
       <c r="FK32" t="s">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="FL32" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="FM32">
-        <v>0.13</v>
+        <v>0.246</v>
       </c>
       <c r="FN32">
-        <v>0.13</v>
+        <v>0.217</v>
       </c>
       <c r="FO32">
-        <v>0.1</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="GB32" t="s">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="GC32">
-        <v>0.14000000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="GD32">
-        <v>0.14000000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="GE32">
-        <v>0.08</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="GR32" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="GS32" t="s">
-        <v>325</v>
+        <v>16</v>
+      </c>
+      <c r="GT32">
+        <v>1.99</v>
+      </c>
+      <c r="GU32">
+        <v>1.71</v>
+      </c>
+      <c r="GV32">
+        <v>1.69</v>
       </c>
       <c r="HD32" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="HE32" t="s">
-        <v>325</v>
+        <v>16</v>
+      </c>
+      <c r="HF32">
+        <v>1.2</v>
+      </c>
+      <c r="HG32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="HH32">
+        <v>1.1000000000000001</v>
       </c>
       <c r="HP32" t="s">
-        <v>310</v>
+        <v>77</v>
+      </c>
+      <c r="HQ32" t="s">
+        <v>16</v>
+      </c>
+      <c r="HR32" t="s">
+        <v>295</v>
+      </c>
+      <c r="HS32" t="s">
+        <v>296</v>
+      </c>
+      <c r="HT32" t="s">
+        <v>297</v>
       </c>
       <c r="HW32" t="s">
-        <v>77</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:231">
@@ -9321,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E33" t="s">
         <v>300</v>
@@ -9333,7 +9307,7 @@
         <v>301</v>
       </c>
       <c r="H33" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="I33" t="s">
         <v>6</v>
@@ -9375,13 +9349,13 @@
         <v>30</v>
       </c>
       <c r="V33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W33">
-        <v>23.13</v>
+        <v>22.67</v>
       </c>
       <c r="X33">
-        <v>3.22</v>
+        <v>3.11</v>
       </c>
       <c r="Y33" t="s">
         <v>15</v>
@@ -9402,13 +9376,13 @@
         <v>6</v>
       </c>
       <c r="AE33" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AF33" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="AH33" t="s">
         <v>313</v>
@@ -9435,31 +9409,31 @@
         <v>288</v>
       </c>
       <c r="BP33" t="s">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="BQ33" t="s">
         <v>316</v>
       </c>
       <c r="BR33">
-        <v>488</v>
+        <v>638</v>
       </c>
       <c r="BS33">
-        <v>530</v>
+        <v>687</v>
       </c>
       <c r="BT33">
-        <v>556</v>
+        <v>715</v>
       </c>
       <c r="CG33" t="s">
         <v>77</v>
       </c>
       <c r="CH33">
-        <v>574</v>
+        <v>737</v>
       </c>
       <c r="CI33">
-        <v>601</v>
+        <v>741</v>
       </c>
       <c r="CJ33">
-        <v>581</v>
+        <v>744</v>
       </c>
       <c r="CW33" t="s">
         <v>77</v>
@@ -9468,25 +9442,25 @@
         <v>316</v>
       </c>
       <c r="CY33">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="CZ33">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="DA33">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="DN33" t="s">
         <v>77</v>
       </c>
       <c r="DO33">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="DP33">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="DQ33">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="ED33" t="s">
         <v>77</v>
@@ -9495,25 +9469,25 @@
         <v>316</v>
       </c>
       <c r="EF33">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="EG33">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="EH33">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="EU33" t="s">
         <v>77</v>
       </c>
       <c r="EV33">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="EW33">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="EX33">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="FK33" t="s">
         <v>77</v>
@@ -9522,34 +9496,34 @@
         <v>316</v>
       </c>
       <c r="FM33">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="FN33">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="FO33">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="GB33" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="GC33">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="GD33">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="GE33">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="GR33" t="s">
         <v>77</v>
       </c>
       <c r="GS33" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="HD33" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="HE33" t="s">
         <v>317</v>
@@ -9557,8 +9531,14 @@
       <c r="HP33" t="s">
         <v>77</v>
       </c>
+      <c r="HQ33" t="s">
+        <v>318</v>
+      </c>
+      <c r="HR33" t="s">
+        <v>319</v>
+      </c>
       <c r="HW33" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:231">
@@ -9581,7 +9561,7 @@
         <v>301</v>
       </c>
       <c r="H34" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I34" t="s">
         <v>6</v>
@@ -9623,13 +9603,13 @@
         <v>30</v>
       </c>
       <c r="V34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W34">
-        <v>23.13</v>
+        <v>22.67</v>
       </c>
       <c r="X34">
-        <v>3.22</v>
+        <v>3.11</v>
       </c>
       <c r="Y34" t="s">
         <v>15</v>
@@ -9650,7 +9630,7 @@
         <v>6</v>
       </c>
       <c r="AE34" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AF34" t="s">
         <v>322</v>
@@ -9671,7 +9651,7 @@
         <v>324</v>
       </c>
       <c r="BE34" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="BF34" t="s">
         <v>287</v>
@@ -9683,85 +9663,85 @@
         <v>288</v>
       </c>
       <c r="BP34" t="s">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="BQ34" t="s">
         <v>316</v>
       </c>
       <c r="BR34">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="BS34">
-        <v>432</v>
+        <v>511</v>
       </c>
       <c r="BT34">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="CG34" t="s">
         <v>77</v>
       </c>
       <c r="CH34">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="CI34">
-        <v>473</v>
+        <v>573</v>
       </c>
       <c r="CJ34">
-        <v>483</v>
+        <v>566</v>
       </c>
       <c r="CW34" t="s">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="CX34" t="s">
         <v>316</v>
       </c>
       <c r="CY34">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="CZ34">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="DA34">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="DN34" t="s">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="DO34">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="DP34">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="DQ34">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="ED34" t="s">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="EE34" t="s">
         <v>316</v>
       </c>
       <c r="EF34">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="EG34">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="EH34">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="EU34" t="s">
         <v>77</v>
       </c>
       <c r="EV34">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="EW34">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="EX34">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="FK34" t="s">
         <v>77</v>
@@ -9770,382 +9750,544 @@
         <v>316</v>
       </c>
       <c r="FM34">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="FN34">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="FO34">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="GB34" t="s">
         <v>77</v>
       </c>
       <c r="GC34">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="GD34">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="GE34">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="GR34" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="GS34" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="HD34" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="HE34" t="s">
         <v>325</v>
       </c>
       <c r="HP34" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="HW34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:231" s="1" customFormat="1">
-      <c r="A35" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    <row r="35" spans="1:231">
+      <c r="B35" t="s">
+        <v>298</v>
+      </c>
+      <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="D35" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F35">
         <v>2021</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="G35" t="s">
+        <v>301</v>
+      </c>
+      <c r="H35" t="s">
+        <v>326</v>
+      </c>
+      <c r="I35" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" t="s">
         <v>305</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q35" s="1" t="s">
+      <c r="O35" t="s">
+        <v>306</v>
+      </c>
+      <c r="P35" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q35" t="s">
         <v>46</v>
       </c>
-      <c r="S35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="U35" s="1">
+      <c r="R35" t="s">
+        <v>308</v>
+      </c>
+      <c r="S35" t="s">
+        <v>309</v>
+      </c>
+      <c r="T35" t="s">
+        <v>15</v>
+      </c>
+      <c r="U35">
+        <v>30</v>
+      </c>
+      <c r="V35">
         <v>20</v>
       </c>
-      <c r="V35" s="1">
-        <v>14</v>
-      </c>
-      <c r="W35" s="1">
-        <v>19.32</v>
-      </c>
-      <c r="X35" s="1">
-        <v>5.08</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z35" s="1" t="s">
+      <c r="W35">
+        <v>23.13</v>
+      </c>
+      <c r="X35">
+        <v>3.22</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z35" t="s">
         <v>16</v>
       </c>
-      <c r="AA35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>10</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>50</v>
-      </c>
-      <c r="AD35" s="1">
+      <c r="AA35" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB35">
+        <v>12</v>
+      </c>
+      <c r="AC35">
+        <v>30</v>
+      </c>
+      <c r="AD35">
+        <v>6</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>315</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>287</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>288</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>310</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>316</v>
+      </c>
+      <c r="BR35">
+        <v>488</v>
+      </c>
+      <c r="BS35">
+        <v>530</v>
+      </c>
+      <c r="BT35">
+        <v>556</v>
+      </c>
+      <c r="CG35" t="s">
+        <v>77</v>
+      </c>
+      <c r="CH35">
+        <v>574</v>
+      </c>
+      <c r="CI35">
+        <v>601</v>
+      </c>
+      <c r="CJ35">
+        <v>581</v>
+      </c>
+      <c r="CW35" t="s">
+        <v>77</v>
+      </c>
+      <c r="CX35" t="s">
+        <v>316</v>
+      </c>
+      <c r="CY35">
+        <v>88</v>
+      </c>
+      <c r="CZ35">
+        <v>77</v>
+      </c>
+      <c r="DA35">
+        <v>81</v>
+      </c>
+      <c r="DN35" t="s">
+        <v>77</v>
+      </c>
+      <c r="DO35">
+        <v>100</v>
+      </c>
+      <c r="DP35">
+        <v>92</v>
+      </c>
+      <c r="DQ35">
+        <v>87</v>
+      </c>
+      <c r="ED35" t="s">
+        <v>77</v>
+      </c>
+      <c r="EE35" t="s">
+        <v>316</v>
+      </c>
+      <c r="EF35">
+        <v>0.92</v>
+      </c>
+      <c r="EG35">
+        <v>0.89</v>
+      </c>
+      <c r="EH35">
+        <v>0.85</v>
+      </c>
+      <c r="EU35" t="s">
+        <v>77</v>
+      </c>
+      <c r="EV35">
+        <v>0.91</v>
+      </c>
+      <c r="EW35">
+        <v>0.87</v>
+      </c>
+      <c r="EX35">
+        <v>0.87</v>
+      </c>
+      <c r="FK35" t="s">
+        <v>77</v>
+      </c>
+      <c r="FL35" t="s">
+        <v>316</v>
+      </c>
+      <c r="FM35">
+        <v>0.11</v>
+      </c>
+      <c r="FN35">
+        <v>0.11</v>
+      </c>
+      <c r="FO35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="GB35" t="s">
+        <v>77</v>
+      </c>
+      <c r="GC35">
+        <v>0.08</v>
+      </c>
+      <c r="GD35">
+        <v>0.08</v>
+      </c>
+      <c r="GE35">
+        <v>0.12</v>
+      </c>
+      <c r="GR35" t="s">
+        <v>77</v>
+      </c>
+      <c r="GS35" t="s">
+        <v>325</v>
+      </c>
+      <c r="HD35" t="s">
+        <v>77</v>
+      </c>
+      <c r="HE35" t="s">
+        <v>317</v>
+      </c>
+      <c r="HP35" t="s">
+        <v>77</v>
+      </c>
+      <c r="HW35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:231">
+      <c r="B36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" t="s">
         <v>1</v>
       </c>
-      <c r="AE35" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF35" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AG35" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AH35" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AI35" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="BE35" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="BF35" s="1" t="s">
+      <c r="D36" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36">
+        <v>2021</v>
+      </c>
+      <c r="G36" t="s">
+        <v>301</v>
+      </c>
+      <c r="H36" t="s">
+        <v>328</v>
+      </c>
+      <c r="I36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="s">
+        <v>305</v>
+      </c>
+      <c r="N36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" t="s">
+        <v>306</v>
+      </c>
+      <c r="P36" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" t="s">
+        <v>308</v>
+      </c>
+      <c r="S36" t="s">
+        <v>309</v>
+      </c>
+      <c r="T36" t="s">
+        <v>15</v>
+      </c>
+      <c r="U36">
+        <v>30</v>
+      </c>
+      <c r="V36">
+        <v>20</v>
+      </c>
+      <c r="W36">
+        <v>23.13</v>
+      </c>
+      <c r="X36">
+        <v>3.22</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB36">
+        <v>12</v>
+      </c>
+      <c r="AC36">
+        <v>30</v>
+      </c>
+      <c r="AD36">
+        <v>6</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>324</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF36" t="s">
         <v>287</v>
       </c>
-      <c r="BG35" s="1" t="s">
+      <c r="BG36" t="s">
         <v>40</v>
       </c>
-      <c r="BP35" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="BQ35" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="CG35" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="CW35" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="CX35" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="DN35" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="ED35" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="EE35" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="EU35" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="FK35" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="FL35" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="GB35" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="GR35" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="GS35" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HD35" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="HE35" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HP35" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="HW35" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:231" s="1" customFormat="1">
-      <c r="A36" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="U36" s="1">
-        <v>24</v>
-      </c>
-      <c r="V36" s="1">
-        <v>16</v>
-      </c>
-      <c r="W36" s="1">
-        <v>19.72</v>
-      </c>
-      <c r="X36" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>10</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>100</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE36" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF36" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG36" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH36" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AI36" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="BE36" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="BF36" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BG36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BP36" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="BQ36" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="CG36" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="CW36" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="CX36" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="DN36" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="ED36" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="EE36" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="EU36" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="FK36" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="FL36" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="GB36" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="GR36" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="GS36" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="HD36" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="HE36" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="HP36" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="HW36" s="1" t="s">
-        <v>292</v>
+      <c r="BH36" t="s">
+        <v>288</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>310</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>316</v>
+      </c>
+      <c r="BR36">
+        <v>426</v>
+      </c>
+      <c r="BS36">
+        <v>432</v>
+      </c>
+      <c r="BT36">
+        <v>442</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>77</v>
+      </c>
+      <c r="CH36">
+        <v>468</v>
+      </c>
+      <c r="CI36">
+        <v>473</v>
+      </c>
+      <c r="CJ36">
+        <v>483</v>
+      </c>
+      <c r="CW36" t="s">
+        <v>310</v>
+      </c>
+      <c r="CX36" t="s">
+        <v>316</v>
+      </c>
+      <c r="CY36">
+        <v>55</v>
+      </c>
+      <c r="CZ36">
+        <v>53</v>
+      </c>
+      <c r="DA36">
+        <v>60</v>
+      </c>
+      <c r="DN36" t="s">
+        <v>310</v>
+      </c>
+      <c r="DO36">
+        <v>70</v>
+      </c>
+      <c r="DP36">
+        <v>67</v>
+      </c>
+      <c r="DQ36">
+        <v>73</v>
+      </c>
+      <c r="ED36" t="s">
+        <v>310</v>
+      </c>
+      <c r="EE36" t="s">
+        <v>316</v>
+      </c>
+      <c r="EF36">
+        <v>0.97</v>
+      </c>
+      <c r="EG36">
+        <v>0.93</v>
+      </c>
+      <c r="EH36">
+        <v>0.94</v>
+      </c>
+      <c r="EU36" t="s">
+        <v>77</v>
+      </c>
+      <c r="EV36">
+        <v>0.94</v>
+      </c>
+      <c r="EW36">
+        <v>0.89</v>
+      </c>
+      <c r="EX36">
+        <v>0.94</v>
+      </c>
+      <c r="FK36" t="s">
+        <v>77</v>
+      </c>
+      <c r="FL36" t="s">
+        <v>316</v>
+      </c>
+      <c r="FM36">
+        <v>0.05</v>
+      </c>
+      <c r="FN36">
+        <v>0.06</v>
+      </c>
+      <c r="FO36">
+        <v>0.05</v>
+      </c>
+      <c r="GB36" t="s">
+        <v>77</v>
+      </c>
+      <c r="GC36">
+        <v>0.06</v>
+      </c>
+      <c r="GD36">
+        <v>0.1</v>
+      </c>
+      <c r="GE36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="GR36" t="s">
+        <v>77</v>
+      </c>
+      <c r="GS36" t="s">
+        <v>317</v>
+      </c>
+      <c r="HD36" t="s">
+        <v>77</v>
+      </c>
+      <c r="HE36" t="s">
+        <v>325</v>
+      </c>
+      <c r="HP36" t="s">
+        <v>77</v>
+      </c>
+      <c r="HW36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:231" s="1" customFormat="1">
       <c r="A37" s="1" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>330</v>
@@ -10157,7 +10299,7 @@
         <v>331</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="F37" s="1">
         <v>2021</v>
@@ -10166,7 +10308,7 @@
         <v>333</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>6</v>
@@ -10189,15 +10331,9 @@
       <c r="O37" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="Q37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="S37" s="1" t="s">
         <v>15</v>
       </c>
@@ -10205,16 +10341,16 @@
         <v>336</v>
       </c>
       <c r="U37" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V37" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W37" s="1">
-        <v>20.399999999999999</v>
+        <v>19.32</v>
       </c>
       <c r="X37" s="1">
-        <v>2.75</v>
+        <v>5.08</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>337</v>
@@ -10229,28 +10365,28 @@
         <v>10</v>
       </c>
       <c r="AC37" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AD37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AH37" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AI37" s="1" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="BE37" s="1" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="BF37" s="1" t="s">
         <v>287</v>
@@ -10259,25 +10395,25 @@
         <v>40</v>
       </c>
       <c r="BP37" s="1" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="BQ37" s="1" t="s">
         <v>342</v>
       </c>
       <c r="CG37" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="CW37" s="1" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="CX37" s="1" t="s">
         <v>342</v>
       </c>
       <c r="DN37" s="1" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="ED37" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="EE37" s="1" t="s">
         <v>342</v>
@@ -10292,19 +10428,19 @@
         <v>342</v>
       </c>
       <c r="GB37" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="GR37" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="GR37" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="GS37" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="HD37" s="1" t="s">
         <v>344</v>
       </c>
       <c r="HE37" s="1" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="HP37" s="1" t="s">
         <v>344</v>
@@ -10313,521 +10449,347 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:231">
-      <c r="B38" t="s">
-        <v>361</v>
-      </c>
-      <c r="C38" t="s">
-        <v>266</v>
-      </c>
-      <c r="D38" t="s">
-        <v>362</v>
-      </c>
-      <c r="E38" t="s">
-        <v>363</v>
-      </c>
-      <c r="F38">
+    <row r="38" spans="1:231" s="1" customFormat="1">
+      <c r="A38" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F38" s="1">
         <v>2021</v>
       </c>
-      <c r="G38" t="s">
-        <v>364</v>
-      </c>
-      <c r="H38" t="s">
-        <v>365</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="G38" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" t="s">
-        <v>366</v>
-      </c>
-      <c r="L38" t="s">
-        <v>367</v>
-      </c>
-      <c r="M38" t="s">
-        <v>368</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="J38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="P38" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>370</v>
-      </c>
-      <c r="R38" t="s">
-        <v>371</v>
-      </c>
-      <c r="S38" t="s">
-        <v>15</v>
-      </c>
-      <c r="T38" t="s">
-        <v>372</v>
-      </c>
-      <c r="U38">
-        <v>105</v>
-      </c>
-      <c r="V38">
-        <v>54</v>
-      </c>
-      <c r="W38">
-        <v>21.47</v>
-      </c>
-      <c r="X38">
-        <v>2.19</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z38" t="s">
+      <c r="P38" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="U38" s="1">
+        <v>24</v>
+      </c>
+      <c r="V38" s="1">
         <v>16</v>
       </c>
-      <c r="AA38" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB38">
-        <v>12</v>
-      </c>
-      <c r="AC38">
-        <v>60</v>
-      </c>
-      <c r="AD38">
+      <c r="W38" s="1">
+        <v>19.72</v>
+      </c>
+      <c r="X38" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BE38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BF38" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BG38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BQ38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="CG38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="CW38" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="CX38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="DN38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="ED38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="EE38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="EU38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="FK38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="FL38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="GB38" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="GR38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="GS38" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="HD38" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="HE38" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="HP38" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="HW38" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:231" s="1" customFormat="1">
+      <c r="A39" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE38" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>373</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>374</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>374</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX38" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY38" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ38" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF38" t="s">
+      <c r="J39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="U39" s="1">
+        <v>25</v>
+      </c>
+      <c r="V39" s="1">
+        <v>18</v>
+      </c>
+      <c r="W39" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="X39" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="BE39" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="BF39" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BG39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BG38" t="s">
-        <v>288</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>287</v>
-      </c>
-      <c r="BP38" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ38" t="s">
-        <v>16</v>
-      </c>
-      <c r="BR38">
-        <v>81.971000000000004</v>
-      </c>
-      <c r="BS38">
-        <v>94.954999999999998</v>
-      </c>
-      <c r="CG38" t="s">
-        <v>77</v>
-      </c>
-      <c r="CH38">
-        <v>35.588000000000001</v>
-      </c>
-      <c r="CI38">
-        <v>48.267000000000003</v>
-      </c>
-      <c r="CW38" t="s">
-        <v>77</v>
-      </c>
-      <c r="CX38" t="s">
-        <v>16</v>
-      </c>
-      <c r="CY38">
-        <v>85.447000000000003</v>
-      </c>
-      <c r="CZ38">
-        <v>80.662999999999997</v>
-      </c>
-      <c r="DN38" t="s">
-        <v>376</v>
-      </c>
-      <c r="DO38">
-        <v>38.136000000000003</v>
-      </c>
-      <c r="DP38">
-        <v>34.854999999999997</v>
-      </c>
-      <c r="ED38" t="s">
-        <v>77</v>
-      </c>
-      <c r="EE38" t="s">
-        <v>16</v>
-      </c>
-      <c r="EF38">
-        <v>0.121</v>
-      </c>
-      <c r="EG38">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="EU38" t="s">
-        <v>77</v>
-      </c>
-      <c r="EV38">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="EW38">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="FK38" t="s">
-        <v>77</v>
-      </c>
-      <c r="FL38" t="s">
-        <v>16</v>
-      </c>
-      <c r="FM38">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="FN38">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="GB38" t="s">
-        <v>377</v>
-      </c>
-      <c r="GC38">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="GD38">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="GR38" t="s">
-        <v>77</v>
-      </c>
-      <c r="GS38" t="s">
-        <v>325</v>
-      </c>
-      <c r="HD38" t="s">
-        <v>77</v>
-      </c>
-      <c r="HE38" t="s">
-        <v>325</v>
-      </c>
-      <c r="HP38" t="s">
-        <v>77</v>
-      </c>
-      <c r="HQ38" t="s">
-        <v>16</v>
-      </c>
-      <c r="HR38" t="s">
-        <v>378</v>
-      </c>
-      <c r="HS38" t="s">
-        <v>379</v>
-      </c>
-      <c r="HT38" t="s">
-        <v>380</v>
-      </c>
-      <c r="HU38" t="s">
-        <v>381</v>
-      </c>
-      <c r="HW38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:231">
-      <c r="A39" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B39" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" t="s">
-        <v>383</v>
-      </c>
-      <c r="E39" t="s">
-        <v>384</v>
-      </c>
-      <c r="F39">
-        <v>2021</v>
-      </c>
-      <c r="G39" t="s">
-        <v>364</v>
-      </c>
-      <c r="H39" t="s">
-        <v>385</v>
-      </c>
-      <c r="I39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" t="s">
-        <v>366</v>
-      </c>
-      <c r="L39" t="s">
-        <v>367</v>
-      </c>
-      <c r="M39" t="s">
-        <v>368</v>
-      </c>
-      <c r="N39" t="s">
-        <v>45</v>
-      </c>
-      <c r="O39" t="s">
-        <v>335</v>
-      </c>
-      <c r="P39" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>387</v>
-      </c>
-      <c r="R39" t="s">
-        <v>371</v>
-      </c>
-      <c r="S39" t="s">
-        <v>15</v>
-      </c>
-      <c r="T39" t="s">
-        <v>388</v>
-      </c>
-      <c r="U39">
-        <v>27</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39" t="s">
-        <v>325</v>
-      </c>
-      <c r="X39" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB39">
-        <v>12</v>
-      </c>
-      <c r="AC39">
-        <v>60</v>
-      </c>
-      <c r="AD39">
-        <v>3</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>315</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ39" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE39" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF39" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG39" t="s">
-        <v>288</v>
-      </c>
-      <c r="BH39" t="s">
-        <v>287</v>
-      </c>
-      <c r="BP39" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ39" t="s">
-        <v>26</v>
-      </c>
-      <c r="BR39">
-        <v>483.786</v>
-      </c>
-      <c r="BS39">
-        <v>565.75699999999995</v>
-      </c>
-      <c r="CG39" t="s">
-        <v>77</v>
-      </c>
-      <c r="CH39">
-        <v>596.42899999999997</v>
-      </c>
-      <c r="CI39">
-        <v>632.01700000000005</v>
-      </c>
-      <c r="CW39" t="s">
-        <v>376</v>
-      </c>
-      <c r="CX39" t="s">
-        <v>26</v>
-      </c>
-      <c r="CY39">
-        <v>88.334000000000003</v>
-      </c>
-      <c r="CZ39">
-        <v>75.656000000000006</v>
-      </c>
-      <c r="DN39" t="s">
-        <v>377</v>
-      </c>
-      <c r="DO39">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="DP39">
-        <v>65.858999999999995</v>
-      </c>
-      <c r="ED39" t="s">
-        <v>77</v>
-      </c>
-      <c r="EE39" t="s">
-        <v>316</v>
-      </c>
-      <c r="EF39">
-        <v>0.89</v>
-      </c>
-      <c r="EG39">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="EU39" t="s">
-        <v>77</v>
-      </c>
-      <c r="EV39">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="EW39">
-        <v>0.75</v>
-      </c>
-      <c r="FK39" t="s">
-        <v>77</v>
-      </c>
-      <c r="FL39" t="s">
-        <v>316</v>
-      </c>
-      <c r="FM39">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="FN39">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="GB39" t="s">
-        <v>377</v>
-      </c>
-      <c r="GC39">
-        <v>0.13</v>
-      </c>
-      <c r="GD39">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="GR39" t="s">
-        <v>77</v>
-      </c>
-      <c r="GS39" t="s">
-        <v>325</v>
-      </c>
-      <c r="HD39" t="s">
-        <v>77</v>
-      </c>
-      <c r="HE39" t="s">
-        <v>325</v>
-      </c>
-      <c r="HP39" t="s">
-        <v>377</v>
-      </c>
-      <c r="HQ39" t="s">
-        <v>16</v>
-      </c>
-      <c r="HR39" t="s">
-        <v>378</v>
-      </c>
-      <c r="HS39" t="s">
-        <v>379</v>
-      </c>
-      <c r="HT39" t="s">
-        <v>380</v>
-      </c>
-      <c r="HU39" t="s">
-        <v>381</v>
-      </c>
-      <c r="HW39" t="s">
-        <v>77</v>
+      <c r="BP39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BQ39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="CG39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="CW39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="CX39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="DN39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="ED39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="EE39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="EU39" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="FK39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="FL39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="GB39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="GR39" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="GS39" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="HD39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="HE39" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="HP39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="HW39" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:231">
-      <c r="A40" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="B40" t="s">
         <v>361</v>
       </c>
@@ -10835,10 +10797,10 @@
         <v>266</v>
       </c>
       <c r="D40" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E40" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="F40">
         <v>2021</v>
@@ -10847,7 +10809,7 @@
         <v>364</v>
       </c>
       <c r="H40" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
@@ -10871,10 +10833,10 @@
         <v>335</v>
       </c>
       <c r="P40" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="Q40" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="R40" t="s">
         <v>371</v>
@@ -10883,19 +10845,19 @@
         <v>15</v>
       </c>
       <c r="T40" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="U40">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="V40">
-        <v>28</v>
-      </c>
-      <c r="W40" t="s">
-        <v>393</v>
-      </c>
-      <c r="X40" t="s">
-        <v>325</v>
+        <v>54</v>
+      </c>
+      <c r="W40">
+        <v>21.47</v>
+      </c>
+      <c r="X40">
+        <v>2.19</v>
       </c>
       <c r="Y40" t="s">
         <v>15</v>
@@ -10913,28 +10875,22 @@
         <v>60</v>
       </c>
       <c r="AD40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE40" t="s">
         <v>77</v>
       </c>
       <c r="AF40" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AG40" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="AH40" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="AI40" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="AN40" t="s">
         <v>18</v>
@@ -10970,85 +10926,85 @@
         <v>77</v>
       </c>
       <c r="BQ40" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="BR40">
-        <v>469.01499999999999</v>
+        <v>81.971000000000004</v>
       </c>
       <c r="BS40">
-        <v>555.73599999999999</v>
+        <v>94.954999999999998</v>
       </c>
       <c r="CG40" t="s">
         <v>77</v>
       </c>
       <c r="CH40">
-        <v>573.71799999999996</v>
+        <v>35.588000000000001</v>
       </c>
       <c r="CI40">
-        <v>609.88199999999995</v>
+        <v>48.267000000000003</v>
       </c>
       <c r="CW40" t="s">
+        <v>77</v>
+      </c>
+      <c r="CX40" t="s">
+        <v>16</v>
+      </c>
+      <c r="CY40">
+        <v>85.447000000000003</v>
+      </c>
+      <c r="CZ40">
+        <v>80.662999999999997</v>
+      </c>
+      <c r="DN40" t="s">
+        <v>376</v>
+      </c>
+      <c r="DO40">
+        <v>38.136000000000003</v>
+      </c>
+      <c r="DP40">
+        <v>34.854999999999997</v>
+      </c>
+      <c r="ED40" t="s">
+        <v>77</v>
+      </c>
+      <c r="EE40" t="s">
+        <v>16</v>
+      </c>
+      <c r="EF40">
+        <v>0.121</v>
+      </c>
+      <c r="EG40">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="EU40" t="s">
+        <v>77</v>
+      </c>
+      <c r="EV40">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="EW40">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="FK40" t="s">
+        <v>77</v>
+      </c>
+      <c r="FL40" t="s">
+        <v>16</v>
+      </c>
+      <c r="FM40">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="FN40">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="GB40" t="s">
         <v>377</v>
       </c>
-      <c r="CX40" t="s">
-        <v>26</v>
-      </c>
-      <c r="CY40">
-        <v>53.429000000000002</v>
-      </c>
-      <c r="CZ40">
-        <v>64.028999999999996</v>
-      </c>
-      <c r="DN40" t="s">
-        <v>77</v>
-      </c>
-      <c r="DO40">
-        <v>54.194000000000003</v>
-      </c>
-      <c r="DP40">
-        <v>57.021999999999998</v>
-      </c>
-      <c r="ED40" t="s">
-        <v>77</v>
-      </c>
-      <c r="EE40" t="s">
-        <v>316</v>
-      </c>
-      <c r="EF40">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="EG40">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="EU40" t="s">
-        <v>77</v>
-      </c>
-      <c r="EV40">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="EW40">
-        <v>0.754</v>
-      </c>
-      <c r="FK40" t="s">
-        <v>77</v>
-      </c>
-      <c r="FL40" t="s">
-        <v>316</v>
-      </c>
-      <c r="FM40">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="FN40">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="GB40" t="s">
-        <v>77</v>
-      </c>
       <c r="GC40">
-        <v>0.122</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="GD40">
-        <v>0.112</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="GR40" t="s">
         <v>77</v>
@@ -11057,13 +11013,13 @@
         <v>325</v>
       </c>
       <c r="HD40" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="HE40" t="s">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="HP40" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="HQ40" t="s">
         <v>16</v>
@@ -11086,7 +11042,7 @@
     </row>
     <row r="41" spans="1:231">
       <c r="A41" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s">
         <v>361</v>
@@ -11095,10 +11051,10 @@
         <v>266</v>
       </c>
       <c r="D41" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="E41" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="F41">
         <v>2021</v>
@@ -11107,7 +11063,7 @@
         <v>364</v>
       </c>
       <c r="H41" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="I41" t="s">
         <v>6</v>
@@ -11134,7 +11090,7 @@
         <v>386</v>
       </c>
       <c r="Q41" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="R41" t="s">
         <v>371</v>
@@ -11182,7 +11138,7 @@
         <v>20</v>
       </c>
       <c r="AG41" t="s">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="AH41" t="s">
         <v>313</v>
@@ -11248,7 +11204,7 @@
         <v>632.01700000000005</v>
       </c>
       <c r="CW41" t="s">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="CX41" t="s">
         <v>26</v>
@@ -11260,7 +11216,7 @@
         <v>75.656000000000006</v>
       </c>
       <c r="DN41" t="s">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="DO41">
         <v>73.400000000000006</v>
@@ -11302,7 +11258,7 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="GB41" t="s">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="GC41">
         <v>0.13</v>
@@ -11317,13 +11273,13 @@
         <v>325</v>
       </c>
       <c r="HD41" t="s">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="HE41" t="s">
         <v>325</v>
       </c>
       <c r="HP41" t="s">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="HQ41" t="s">
         <v>16</v>
@@ -11346,7 +11302,7 @@
     </row>
     <row r="42" spans="1:231">
       <c r="A42" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B42" t="s">
         <v>361</v>
@@ -11355,10 +11311,10 @@
         <v>266</v>
       </c>
       <c r="D42" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="E42" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F42">
         <v>2021</v>
@@ -11367,7 +11323,7 @@
         <v>364</v>
       </c>
       <c r="H42" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
@@ -11394,7 +11350,7 @@
         <v>386</v>
       </c>
       <c r="Q42" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="R42" t="s">
         <v>371</v>
@@ -11412,7 +11368,7 @@
         <v>28</v>
       </c>
       <c r="W42" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="X42" t="s">
         <v>325</v>
@@ -11508,7 +11464,7 @@
         <v>609.88199999999995</v>
       </c>
       <c r="CW42" t="s">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="CX42" t="s">
         <v>26</v>
@@ -11562,7 +11518,7 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="GB42" t="s">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="GC42">
         <v>0.122</v>
@@ -11580,10 +11536,10 @@
         <v>377</v>
       </c>
       <c r="HE42" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="HP42" t="s">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="HQ42" t="s">
         <v>16</v>
@@ -11605,6 +11561,9 @@
       </c>
     </row>
     <row r="43" spans="1:231">
+      <c r="A43" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="B43" t="s">
         <v>361</v>
       </c>
@@ -11615,7 +11574,7 @@
         <v>362</v>
       </c>
       <c r="E43" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F43">
         <v>2021</v>
@@ -11624,7 +11583,7 @@
         <v>364</v>
       </c>
       <c r="H43" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I43" t="s">
         <v>6</v>
@@ -11648,10 +11607,10 @@
         <v>335</v>
       </c>
       <c r="P43" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="Q43" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="R43" t="s">
         <v>371</v>
@@ -11660,19 +11619,19 @@
         <v>15</v>
       </c>
       <c r="T43" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="U43">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="V43">
-        <v>54</v>
-      </c>
-      <c r="W43">
-        <v>21.47</v>
-      </c>
-      <c r="X43">
-        <v>2.19</v>
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>325</v>
+      </c>
+      <c r="X43" t="s">
+        <v>325</v>
       </c>
       <c r="Y43" t="s">
         <v>15</v>
@@ -11690,22 +11649,28 @@
         <v>60</v>
       </c>
       <c r="AD43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE43" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="AG43" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="AH43" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="AI43" t="s">
-        <v>374</v>
+        <v>323</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>315</v>
       </c>
       <c r="AN43" t="s">
         <v>18</v>
@@ -11726,7 +11691,7 @@
         <v>18</v>
       </c>
       <c r="BE43" t="s">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="BF43" t="s">
         <v>40</v>
@@ -11741,94 +11706,94 @@
         <v>77</v>
       </c>
       <c r="BQ43" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BR43">
-        <v>86.721000000000004</v>
+        <v>483.786</v>
       </c>
       <c r="BS43">
-        <v>79.379000000000005</v>
+        <v>565.75699999999995</v>
       </c>
       <c r="CG43" t="s">
         <v>77</v>
       </c>
       <c r="CH43">
-        <v>36.164000000000001</v>
+        <v>596.42899999999997</v>
       </c>
       <c r="CI43">
-        <v>36.789000000000001</v>
+        <v>632.01700000000005</v>
       </c>
       <c r="CW43" t="s">
         <v>77</v>
       </c>
       <c r="CX43" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="CY43">
-        <v>58.347999999999999</v>
+        <v>88.334000000000003</v>
       </c>
       <c r="CZ43">
-        <v>57.06</v>
+        <v>75.656000000000006</v>
       </c>
       <c r="DN43" t="s">
         <v>77</v>
       </c>
       <c r="DO43">
-        <v>29.72</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="DP43">
-        <v>28.837</v>
+        <v>65.858999999999995</v>
       </c>
       <c r="ED43" t="s">
         <v>77</v>
       </c>
       <c r="EE43" t="s">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="EF43">
-        <v>0.13600000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="EG43">
-        <v>7.5999999999999998E-2</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="EU43" t="s">
         <v>77</v>
       </c>
       <c r="EV43">
-        <v>5.8000000000000003E-2</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="EW43">
-        <v>2.5999999999999999E-2</v>
+        <v>0.75</v>
       </c>
       <c r="FK43" t="s">
         <v>77</v>
       </c>
       <c r="FL43" t="s">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="FM43">
-        <v>0.124</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="FN43">
-        <v>0.11600000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="GB43" t="s">
         <v>77</v>
       </c>
       <c r="GC43">
-        <v>5.8000000000000003E-2</v>
+        <v>0.13</v>
       </c>
       <c r="GD43">
-        <v>2.5999999999999999E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="GR43" t="s">
         <v>77</v>
       </c>
       <c r="GS43" t="s">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="HD43" t="s">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="HE43" t="s">
         <v>325</v>
@@ -11857,7 +11822,7 @@
     </row>
     <row r="44" spans="1:231">
       <c r="A44" s="2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s">
         <v>361</v>
@@ -11869,7 +11834,7 @@
         <v>362</v>
       </c>
       <c r="E44" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F44">
         <v>2021</v>
@@ -11878,7 +11843,7 @@
         <v>364</v>
       </c>
       <c r="H44" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I44" t="s">
         <v>6</v>
@@ -11905,7 +11870,7 @@
         <v>386</v>
       </c>
       <c r="Q44" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="R44" t="s">
         <v>371</v>
@@ -11917,10 +11882,10 @@
         <v>388</v>
       </c>
       <c r="U44">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W44" t="s">
         <v>325</v>
@@ -11965,7 +11930,7 @@
         <v>22</v>
       </c>
       <c r="AK44" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="AN44" t="s">
         <v>18</v>
@@ -11998,25 +11963,25 @@
         <v>287</v>
       </c>
       <c r="BP44" t="s">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="BQ44" t="s">
         <v>26</v>
       </c>
       <c r="BR44">
-        <v>504.03199999999998</v>
+        <v>469.01499999999999</v>
       </c>
       <c r="BS44">
-        <v>598.98599999999999</v>
+        <v>555.73599999999999</v>
       </c>
       <c r="CG44" t="s">
         <v>77</v>
       </c>
       <c r="CH44">
-        <v>595.48</v>
+        <v>573.71799999999996</v>
       </c>
       <c r="CI44">
-        <v>643.74699999999996</v>
+        <v>609.88199999999995</v>
       </c>
       <c r="CW44" t="s">
         <v>77</v>
@@ -12025,19 +11990,19 @@
         <v>26</v>
       </c>
       <c r="CY44">
-        <v>60.966999999999999</v>
+        <v>53.429000000000002</v>
       </c>
       <c r="CZ44">
-        <v>70.474000000000004</v>
+        <v>64.028999999999996</v>
       </c>
       <c r="DN44" t="s">
         <v>77</v>
       </c>
       <c r="DO44">
-        <v>54.671999999999997</v>
+        <v>54.194000000000003</v>
       </c>
       <c r="DP44">
-        <v>53.444000000000003</v>
+        <v>57.021999999999998</v>
       </c>
       <c r="ED44" t="s">
         <v>77</v>
@@ -12046,19 +12011,19 @@
         <v>316</v>
       </c>
       <c r="EF44">
-        <v>0.88900000000000001</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="EG44">
-        <v>0.72399999999999998</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="EU44" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="EV44">
-        <v>0.79600000000000004</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="EW44">
-        <v>0.71499999999999997</v>
+        <v>0.754</v>
       </c>
       <c r="FK44" t="s">
         <v>77</v>
@@ -12067,19 +12032,19 @@
         <v>316</v>
       </c>
       <c r="FM44">
-        <v>0.11700000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="FN44">
-        <v>0.183</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="GB44" t="s">
         <v>376</v>
       </c>
       <c r="GC44">
-        <v>0.126</v>
+        <v>0.122</v>
       </c>
       <c r="GD44">
-        <v>0.127</v>
+        <v>0.112</v>
       </c>
       <c r="GR44" t="s">
         <v>77</v>
@@ -12088,7 +12053,7 @@
         <v>325</v>
       </c>
       <c r="HD44" t="s">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="HE44" t="s">
         <v>325</v>
@@ -12112,13 +12077,10 @@
         <v>381</v>
       </c>
       <c r="HW44" t="s">
-        <v>376</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:231">
-      <c r="A45" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="B45" t="s">
         <v>361</v>
       </c>
@@ -12129,7 +12091,7 @@
         <v>362</v>
       </c>
       <c r="E45" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F45">
         <v>2021</v>
@@ -12138,7 +12100,7 @@
         <v>364</v>
       </c>
       <c r="H45" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I45" t="s">
         <v>6</v>
@@ -12162,10 +12124,10 @@
         <v>335</v>
       </c>
       <c r="P45" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="Q45" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="R45" t="s">
         <v>371</v>
@@ -12174,19 +12136,19 @@
         <v>15</v>
       </c>
       <c r="T45" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="U45">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="V45">
-        <v>26</v>
-      </c>
-      <c r="W45" t="s">
-        <v>408</v>
-      </c>
-      <c r="X45" t="s">
-        <v>325</v>
+        <v>54</v>
+      </c>
+      <c r="W45">
+        <v>21.47</v>
+      </c>
+      <c r="X45">
+        <v>2.19</v>
       </c>
       <c r="Y45" t="s">
         <v>15</v>
@@ -12204,49 +12166,43 @@
         <v>60</v>
       </c>
       <c r="AD45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE45" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>375</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE45" t="s">
         <v>376</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>312</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>313</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>409</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>315</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ45" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE45" t="s">
-        <v>77</v>
       </c>
       <c r="BF45" t="s">
         <v>40</v>
@@ -12261,88 +12217,88 @@
         <v>77</v>
       </c>
       <c r="BQ45" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="BR45">
-        <v>490.83199999999999</v>
+        <v>86.721000000000004</v>
       </c>
       <c r="BS45">
-        <v>570.21100000000001</v>
+        <v>79.379000000000005</v>
       </c>
       <c r="CG45" t="s">
         <v>77</v>
       </c>
       <c r="CH45">
-        <v>577.721</v>
+        <v>36.164000000000001</v>
       </c>
       <c r="CI45">
-        <v>614.51</v>
+        <v>36.789000000000001</v>
       </c>
       <c r="CW45" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="CX45" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="CY45">
-        <v>62.151000000000003</v>
+        <v>58.347999999999999</v>
       </c>
       <c r="CZ45">
-        <v>55.780999999999999</v>
+        <v>57.06</v>
       </c>
       <c r="DN45" t="s">
         <v>77</v>
       </c>
       <c r="DO45">
-        <v>58.941000000000003</v>
+        <v>29.72</v>
       </c>
       <c r="DP45">
-        <v>56.588000000000001</v>
+        <v>28.837</v>
       </c>
       <c r="ED45" t="s">
         <v>77</v>
       </c>
       <c r="EE45" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="EF45">
-        <v>0.90500000000000003</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="EG45">
-        <v>0.82899999999999996</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="EU45" t="s">
         <v>77</v>
       </c>
       <c r="EV45">
-        <v>0.80800000000000005</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="EW45">
-        <v>0.78300000000000003</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="FK45" t="s">
         <v>77</v>
       </c>
       <c r="FL45" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="FM45">
-        <v>8.3000000000000004E-2</v>
+        <v>0.124</v>
       </c>
       <c r="FN45">
-        <v>0.125</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="GB45" t="s">
         <v>77</v>
       </c>
       <c r="GC45">
-        <v>0.11</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="GD45">
-        <v>0.114</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="GR45" t="s">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="GS45" t="s">
         <v>393</v>
@@ -12372,7 +12328,7 @@
         <v>381</v>
       </c>
       <c r="HW45" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:231">
@@ -12389,7 +12345,7 @@
         <v>362</v>
       </c>
       <c r="E46" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F46">
         <v>2021</v>
@@ -12398,7 +12354,7 @@
         <v>364</v>
       </c>
       <c r="H46" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I46" t="s">
         <v>6</v>
@@ -12466,6 +12422,9 @@
       <c r="AD46">
         <v>3</v>
       </c>
+      <c r="AE46" t="s">
+        <v>77</v>
+      </c>
       <c r="AF46" t="s">
         <v>20</v>
       </c>
@@ -12482,7 +12441,28 @@
         <v>22</v>
       </c>
       <c r="AK46" t="s">
-        <v>315</v>
+        <v>405</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>77</v>
       </c>
       <c r="BF46" t="s">
         <v>40</v>
@@ -12493,6 +12473,9 @@
       <c r="BH46" t="s">
         <v>287</v>
       </c>
+      <c r="BP46" t="s">
+        <v>376</v>
+      </c>
       <c r="BQ46" t="s">
         <v>26</v>
       </c>
@@ -12502,12 +12485,18 @@
       <c r="BS46">
         <v>598.98599999999999</v>
       </c>
+      <c r="CG46" t="s">
+        <v>77</v>
+      </c>
       <c r="CH46">
         <v>595.48</v>
       </c>
       <c r="CI46">
         <v>643.74699999999996</v>
       </c>
+      <c r="CW46" t="s">
+        <v>77</v>
+      </c>
       <c r="CX46" t="s">
         <v>26</v>
       </c>
@@ -12517,12 +12506,18 @@
       <c r="CZ46">
         <v>70.474000000000004</v>
       </c>
+      <c r="DN46" t="s">
+        <v>77</v>
+      </c>
       <c r="DO46">
         <v>54.671999999999997</v>
       </c>
       <c r="DP46">
         <v>53.444000000000003</v>
       </c>
+      <c r="ED46" t="s">
+        <v>77</v>
+      </c>
       <c r="EE46" t="s">
         <v>316</v>
       </c>
@@ -12532,12 +12527,18 @@
       <c r="EG46">
         <v>0.72399999999999998</v>
       </c>
+      <c r="EU46" t="s">
+        <v>377</v>
+      </c>
       <c r="EV46">
         <v>0.79600000000000004</v>
       </c>
       <c r="EW46">
         <v>0.71499999999999997</v>
       </c>
+      <c r="FK46" t="s">
+        <v>77</v>
+      </c>
       <c r="FL46" t="s">
         <v>316</v>
       </c>
@@ -12547,18 +12548,30 @@
       <c r="FN46">
         <v>0.183</v>
       </c>
+      <c r="GB46" t="s">
+        <v>376</v>
+      </c>
       <c r="GC46">
         <v>0.126</v>
       </c>
       <c r="GD46">
         <v>0.127</v>
       </c>
+      <c r="GR46" t="s">
+        <v>77</v>
+      </c>
       <c r="GS46" t="s">
         <v>325</v>
       </c>
+      <c r="HD46" t="s">
+        <v>77</v>
+      </c>
       <c r="HE46" t="s">
         <v>325</v>
       </c>
+      <c r="HP46" t="s">
+        <v>77</v>
+      </c>
       <c r="HQ46" t="s">
         <v>16</v>
       </c>
@@ -12573,6 +12586,9 @@
       </c>
       <c r="HU46" t="s">
         <v>381</v>
+      </c>
+      <c r="HW46" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:231">
@@ -12589,7 +12605,7 @@
         <v>362</v>
       </c>
       <c r="E47" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F47">
         <v>2021</v>
@@ -12598,7 +12614,7 @@
         <v>364</v>
       </c>
       <c r="H47" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
@@ -12643,7 +12659,7 @@
         <v>26</v>
       </c>
       <c r="W47" t="s">
-        <v>325</v>
+        <v>408</v>
       </c>
       <c r="X47" t="s">
         <v>325</v>
@@ -12666,6 +12682,9 @@
       <c r="AD47">
         <v>3</v>
       </c>
+      <c r="AE47" t="s">
+        <v>376</v>
+      </c>
       <c r="AF47" t="s">
         <v>20</v>
       </c>
@@ -12676,7 +12695,7 @@
         <v>313</v>
       </c>
       <c r="AI47" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="AJ47" t="s">
         <v>22</v>
@@ -12684,6 +12703,27 @@
       <c r="AK47" t="s">
         <v>315</v>
       </c>
+      <c r="AN47" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>77</v>
+      </c>
       <c r="BF47" t="s">
         <v>40</v>
       </c>
@@ -12693,6 +12733,9 @@
       <c r="BH47" t="s">
         <v>287</v>
       </c>
+      <c r="BP47" t="s">
+        <v>77</v>
+      </c>
       <c r="BQ47" t="s">
         <v>26</v>
       </c>
@@ -12702,12 +12745,18 @@
       <c r="BS47">
         <v>570.21100000000001</v>
       </c>
+      <c r="CG47" t="s">
+        <v>77</v>
+      </c>
       <c r="CH47">
         <v>577.721</v>
       </c>
       <c r="CI47">
         <v>614.51</v>
       </c>
+      <c r="CW47" t="s">
+        <v>377</v>
+      </c>
       <c r="CX47" t="s">
         <v>26</v>
       </c>
@@ -12717,12 +12766,18 @@
       <c r="CZ47">
         <v>55.780999999999999</v>
       </c>
+      <c r="DN47" t="s">
+        <v>77</v>
+      </c>
       <c r="DO47">
         <v>58.941000000000003</v>
       </c>
       <c r="DP47">
         <v>56.588000000000001</v>
       </c>
+      <c r="ED47" t="s">
+        <v>77</v>
+      </c>
       <c r="EE47" t="s">
         <v>316</v>
       </c>
@@ -12732,12 +12787,18 @@
       <c r="EG47">
         <v>0.82899999999999996</v>
       </c>
+      <c r="EU47" t="s">
+        <v>77</v>
+      </c>
       <c r="EV47">
         <v>0.80800000000000005</v>
       </c>
       <c r="EW47">
         <v>0.78300000000000003</v>
       </c>
+      <c r="FK47" t="s">
+        <v>77</v>
+      </c>
       <c r="FL47" t="s">
         <v>316</v>
       </c>
@@ -12747,18 +12808,30 @@
       <c r="FN47">
         <v>0.125</v>
       </c>
+      <c r="GB47" t="s">
+        <v>77</v>
+      </c>
       <c r="GC47">
         <v>0.11</v>
       </c>
       <c r="GD47">
         <v>0.114</v>
       </c>
+      <c r="GR47" t="s">
+        <v>376</v>
+      </c>
       <c r="GS47" t="s">
-        <v>325</v>
+        <v>393</v>
+      </c>
+      <c r="HD47" t="s">
+        <v>77</v>
       </c>
       <c r="HE47" t="s">
         <v>325</v>
       </c>
+      <c r="HP47" t="s">
+        <v>77</v>
+      </c>
       <c r="HQ47" t="s">
         <v>16</v>
       </c>
@@ -12772,6 +12845,409 @@
         <v>380</v>
       </c>
       <c r="HU47" t="s">
+        <v>381</v>
+      </c>
+      <c r="HW47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:231">
+      <c r="A48" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B48" t="s">
+        <v>361</v>
+      </c>
+      <c r="C48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E48" t="s">
+        <v>410</v>
+      </c>
+      <c r="F48">
+        <v>2021</v>
+      </c>
+      <c r="G48" t="s">
+        <v>364</v>
+      </c>
+      <c r="H48" t="s">
+        <v>411</v>
+      </c>
+      <c r="I48" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" t="s">
+        <v>366</v>
+      </c>
+      <c r="L48" t="s">
+        <v>367</v>
+      </c>
+      <c r="M48" t="s">
+        <v>368</v>
+      </c>
+      <c r="N48" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48" t="s">
+        <v>335</v>
+      </c>
+      <c r="P48" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>387</v>
+      </c>
+      <c r="R48" t="s">
+        <v>371</v>
+      </c>
+      <c r="S48" t="s">
+        <v>15</v>
+      </c>
+      <c r="T48" t="s">
+        <v>388</v>
+      </c>
+      <c r="U48">
+        <v>24</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>325</v>
+      </c>
+      <c r="X48" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB48">
+        <v>12</v>
+      </c>
+      <c r="AC48">
+        <v>60</v>
+      </c>
+      <c r="AD48">
+        <v>3</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG48" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>287</v>
+      </c>
+      <c r="BQ48" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR48">
+        <v>504.03199999999998</v>
+      </c>
+      <c r="BS48">
+        <v>598.98599999999999</v>
+      </c>
+      <c r="CH48">
+        <v>595.48</v>
+      </c>
+      <c r="CI48">
+        <v>643.74699999999996</v>
+      </c>
+      <c r="CX48" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY48">
+        <v>60.966999999999999</v>
+      </c>
+      <c r="CZ48">
+        <v>70.474000000000004</v>
+      </c>
+      <c r="DO48">
+        <v>54.671999999999997</v>
+      </c>
+      <c r="DP48">
+        <v>53.444000000000003</v>
+      </c>
+      <c r="EE48" t="s">
+        <v>316</v>
+      </c>
+      <c r="EF48">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="EG48">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="EV48">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="EW48">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="FL48" t="s">
+        <v>316</v>
+      </c>
+      <c r="FM48">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="FN48">
+        <v>0.183</v>
+      </c>
+      <c r="GC48">
+        <v>0.126</v>
+      </c>
+      <c r="GD48">
+        <v>0.127</v>
+      </c>
+      <c r="GS48" t="s">
+        <v>325</v>
+      </c>
+      <c r="HE48" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ48" t="s">
+        <v>16</v>
+      </c>
+      <c r="HR48" t="s">
+        <v>378</v>
+      </c>
+      <c r="HS48" t="s">
+        <v>379</v>
+      </c>
+      <c r="HT48" t="s">
+        <v>380</v>
+      </c>
+      <c r="HU48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:229">
+      <c r="A49" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B49" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" t="s">
+        <v>362</v>
+      </c>
+      <c r="E49" t="s">
+        <v>412</v>
+      </c>
+      <c r="F49">
+        <v>2021</v>
+      </c>
+      <c r="G49" t="s">
+        <v>364</v>
+      </c>
+      <c r="H49" t="s">
+        <v>413</v>
+      </c>
+      <c r="I49" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="s">
+        <v>368</v>
+      </c>
+      <c r="N49" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49" t="s">
+        <v>335</v>
+      </c>
+      <c r="P49" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>387</v>
+      </c>
+      <c r="R49" t="s">
+        <v>371</v>
+      </c>
+      <c r="S49" t="s">
+        <v>15</v>
+      </c>
+      <c r="T49" t="s">
+        <v>388</v>
+      </c>
+      <c r="U49">
+        <v>26</v>
+      </c>
+      <c r="V49">
+        <v>26</v>
+      </c>
+      <c r="W49" t="s">
+        <v>325</v>
+      </c>
+      <c r="X49" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB49">
+        <v>12</v>
+      </c>
+      <c r="AC49">
+        <v>60</v>
+      </c>
+      <c r="AD49">
+        <v>3</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>287</v>
+      </c>
+      <c r="BQ49" t="s">
+        <v>26</v>
+      </c>
+      <c r="BR49">
+        <v>490.83199999999999</v>
+      </c>
+      <c r="BS49">
+        <v>570.21100000000001</v>
+      </c>
+      <c r="CH49">
+        <v>577.721</v>
+      </c>
+      <c r="CI49">
+        <v>614.51</v>
+      </c>
+      <c r="CX49" t="s">
+        <v>26</v>
+      </c>
+      <c r="CY49">
+        <v>62.151000000000003</v>
+      </c>
+      <c r="CZ49">
+        <v>55.780999999999999</v>
+      </c>
+      <c r="DO49">
+        <v>58.941000000000003</v>
+      </c>
+      <c r="DP49">
+        <v>56.588000000000001</v>
+      </c>
+      <c r="EE49" t="s">
+        <v>316</v>
+      </c>
+      <c r="EF49">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="EG49">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="EV49">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="EW49">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="FL49" t="s">
+        <v>316</v>
+      </c>
+      <c r="FM49">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="FN49">
+        <v>0.125</v>
+      </c>
+      <c r="GC49">
+        <v>0.11</v>
+      </c>
+      <c r="GD49">
+        <v>0.114</v>
+      </c>
+      <c r="GS49" t="s">
+        <v>325</v>
+      </c>
+      <c r="HE49" t="s">
+        <v>325</v>
+      </c>
+      <c r="HQ49" t="s">
+        <v>16</v>
+      </c>
+      <c r="HR49" t="s">
+        <v>378</v>
+      </c>
+      <c r="HS49" t="s">
+        <v>379</v>
+      </c>
+      <c r="HT49" t="s">
+        <v>380</v>
+      </c>
+      <c r="HU49" t="s">
         <v>381</v>
       </c>
     </row>
